--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.262021403328609</v>
+        <v>7.262021403328644</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.369903132246932</v>
+        <v>2.369903132246875</v>
       </c>
       <c r="E2">
-        <v>4.629952005582359</v>
+        <v>4.629952005582225</v>
       </c>
       <c r="F2">
-        <v>35.88944552064688</v>
+        <v>35.88944552064691</v>
       </c>
       <c r="G2">
-        <v>27.64134756821298</v>
+        <v>27.641347568213</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>44.24807198246016</v>
+        <v>44.24807198246018</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.90664941191554</v>
+        <v>29.90664941191555</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.199878330267308</v>
+        <v>2.199878330267252</v>
       </c>
       <c r="E3">
-        <v>4.980264308528676</v>
+        <v>4.980264308528606</v>
       </c>
       <c r="F3">
-        <v>33.11928480095664</v>
+        <v>33.11928480095657</v>
       </c>
       <c r="G3">
-        <v>25.44355018667911</v>
+        <v>25.44355018667907</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>41.17564267790631</v>
+        <v>41.1756426779064</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.79651370336092</v>
+        <v>27.79651370336096</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67082328170368</v>
+        <v>6.670823281703679</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.258520839635259</v>
+        <v>2.258520839635241</v>
       </c>
       <c r="E4">
         <v>5.197870711776735</v>
       </c>
       <c r="F4">
-        <v>31.55456691660441</v>
+        <v>31.55456691660437</v>
       </c>
       <c r="G4">
-        <v>24.31061142297621</v>
+        <v>24.31061142297616</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>39.20052200610957</v>
+        <v>39.20052200610954</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.44341600613992</v>
+        <v>26.44341600613991</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576536851957794</v>
+        <v>6.576536851957787</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.286213686288712</v>
+        <v>2.286213686288568</v>
       </c>
       <c r="E5">
         <v>5.287309623402138</v>
       </c>
       <c r="F5">
-        <v>30.92378802870745</v>
+        <v>30.92378802870734</v>
       </c>
       <c r="G5">
-        <v>23.85733690774416</v>
+        <v>23.85733690774411</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>38.37275031704001</v>
+        <v>38.37275031703998</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.87709169742127</v>
+        <v>25.87709169742122</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560808074309183</v>
+        <v>6.560808074309207</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.291019556409053</v>
+        <v>2.291019556409022</v>
       </c>
       <c r="E6">
-        <v>5.302210585498489</v>
+        <v>5.302210585498358</v>
       </c>
       <c r="F6">
-        <v>30.81901008586692</v>
+        <v>30.81901008586701</v>
       </c>
       <c r="G6">
-        <v>23.78223523061781</v>
+        <v>23.7822352306179</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>38.23390057891196</v>
+        <v>38.23390057891186</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.782139769603</v>
+        <v>25.78213976960297</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669556649807803</v>
+        <v>6.669556649807793</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.258879947459357</v>
+        <v>2.258879947459409</v>
       </c>
       <c r="E7">
-        <v>5.199073662704585</v>
+        <v>5.199073662704655</v>
       </c>
       <c r="F7">
-        <v>31.54606261684291</v>
+        <v>31.54606261684302</v>
       </c>
       <c r="G7">
-        <v>24.30448747636706</v>
+        <v>24.30448747636715</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>39.18945182575712</v>
+        <v>39.18945182575707</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.43583937678957</v>
+        <v>26.43583937678956</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138074060163249</v>
+        <v>7.13807406016323</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.27469085338101</v>
+        <v>2.274690853381056</v>
       </c>
       <c r="E8">
-        <v>4.750299425760591</v>
+        <v>4.750299425760654</v>
       </c>
       <c r="F8">
-        <v>34.93913404084582</v>
+        <v>34.93913404084584</v>
       </c>
       <c r="G8">
-        <v>26.88754842077664</v>
+        <v>26.88754842077666</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>43.20670311386471</v>
+        <v>43.20670311386476</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.19069431927043</v>
+        <v>29.19069431927045</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.010077774956443</v>
+        <v>8.010077774956432</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.972765862440031</v>
+        <v>2.972765862439986</v>
       </c>
       <c r="E9">
-        <v>3.883924933462363</v>
+        <v>3.883924933462399</v>
       </c>
       <c r="F9">
-        <v>41.74662895347478</v>
+        <v>41.74662895347466</v>
       </c>
       <c r="G9">
-        <v>32.28622824519204</v>
+        <v>32.28622824519194</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>50.41369233891629</v>
+        <v>50.41369233891613</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.16243576094288</v>
+        <v>34.16243576094279</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.682878824319548</v>
+        <v>8.682878824319559</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.507051245738305</v>
+        <v>3.507051245738301</v>
       </c>
       <c r="E10">
-        <v>3.247130684909515</v>
+        <v>3.247130684909339</v>
       </c>
       <c r="F10">
-        <v>46.71987707412647</v>
+        <v>46.71987707412652</v>
       </c>
       <c r="G10">
-        <v>36.2319931207278</v>
+        <v>36.23199312072784</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>55.35485969566039</v>
+        <v>55.35485969566044</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37.59595456730035</v>
+        <v>37.59595456730036</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.007089242149707</v>
+        <v>9.007089242149693</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.759183839935096</v>
+        <v>3.759183839935202</v>
       </c>
       <c r="E11">
-        <v>2.956053124177825</v>
+        <v>2.956053124177918</v>
       </c>
       <c r="F11">
-        <v>49.00095123901395</v>
+        <v>49.00095123901383</v>
       </c>
       <c r="G11">
-        <v>38.04318446958602</v>
+        <v>38.04318446958593</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>57.5419476175016</v>
+        <v>57.54194761750153</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>39.12296275870592</v>
+        <v>39.12296275870585</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.127786811400808</v>
+        <v>9.127786811400806</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.856463056224994</v>
+        <v>3.856463056224949</v>
       </c>
       <c r="E12">
-        <v>2.845660258944325</v>
+        <v>2.845660258944627</v>
       </c>
       <c r="F12">
-        <v>49.87031607590369</v>
+        <v>49.87031607590418</v>
       </c>
       <c r="G12">
-        <v>38.73375871954212</v>
+        <v>38.73375871954251</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>58.36315444418497</v>
+        <v>58.36315444418511</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>39.69755030185629</v>
+        <v>39.69755030185634</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.101882981477246</v>
+        <v>9.101882981477335</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.83542271884603</v>
+        <v>3.8354227188461</v>
       </c>
       <c r="E13">
-        <v>2.869439615975164</v>
+        <v>2.869439615975196</v>
       </c>
       <c r="F13">
-        <v>49.68277996185051</v>
+        <v>49.68277996185039</v>
       </c>
       <c r="G13">
-        <v>38.58477613849557</v>
+        <v>38.58477613849551</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>58.18657180203284</v>
+        <v>58.18657180203279</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>39.57393982250355</v>
+        <v>39.57393982250352</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.01706006688338</v>
+        <v>9.017060066883396</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.767147618275982</v>
+        <v>3.767147618276048</v>
       </c>
       <c r="E14">
-        <v>2.946973361957533</v>
+        <v>2.946973361957529</v>
       </c>
       <c r="F14">
-        <v>49.07234322427681</v>
+        <v>49.07234322427676</v>
       </c>
       <c r="G14">
-        <v>38.09988784230033</v>
+        <v>38.0998878423003</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>57.60963756569086</v>
+        <v>57.60963756569082</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>39.17029868633993</v>
+        <v>39.17029868633992</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.964836586654439</v>
+        <v>8.964836586654453</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.725578838430858</v>
+        <v>3.725578838430822</v>
       </c>
       <c r="E15">
-        <v>2.994448029596355</v>
+        <v>2.99444802959639</v>
       </c>
       <c r="F15">
-        <v>48.69925845857959</v>
+        <v>48.69925845857976</v>
       </c>
       <c r="G15">
-        <v>37.8035760675775</v>
+        <v>37.80357606757763</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>57.25539618843706</v>
+        <v>57.25539618843711</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>38.92262679287806</v>
+        <v>38.9226267928781</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.661395200741813</v>
+        <v>8.661395200741852</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.490796036646091</v>
+        <v>3.490796036646007</v>
       </c>
       <c r="E16">
-        <v>3.266123347784816</v>
+        <v>3.266123347784744</v>
       </c>
       <c r="F16">
-        <v>46.57140802592873</v>
+        <v>46.57140802592856</v>
       </c>
       <c r="G16">
-        <v>36.11414293089071</v>
+        <v>36.11414293089055</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>55.21084596627809</v>
+        <v>55.2108459662781</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.471444123608636</v>
+        <v>8.471444123608594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.349404633481214</v>
+        <v>3.349404633481331</v>
       </c>
       <c r="E17">
-        <v>3.432394913520768</v>
+        <v>3.432394913520759</v>
       </c>
       <c r="F17">
-        <v>45.27263821953463</v>
+        <v>45.27263821953451</v>
       </c>
       <c r="G17">
-        <v>35.08338480815163</v>
+        <v>35.08338480815157</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>53.94214681370257</v>
+        <v>53.94214681370263</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>36.61204166304319</v>
+        <v>36.61204166304321</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.360763615961114</v>
+        <v>8.36076361596113</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.268898843368927</v>
+        <v>3.268898843368983</v>
       </c>
       <c r="E18">
-        <v>3.527889886796408</v>
+        <v>3.527889886796264</v>
       </c>
       <c r="F18">
-        <v>44.52716815677839</v>
+        <v>44.52716815677829</v>
       </c>
       <c r="G18">
-        <v>34.49187290853639</v>
+        <v>34.49187290853632</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>53.20658963811007</v>
+        <v>53.20658963811017</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.10047642066635</v>
+        <v>36.10047642066641</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.323041618918165</v>
+        <v>8.323041618918198</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.241768524775832</v>
+        <v>3.241768524775669</v>
       </c>
       <c r="E19">
-        <v>3.560200824330892</v>
+        <v>3.560200824330764</v>
       </c>
       <c r="F19">
-        <v>44.27495572288518</v>
+        <v>44.27495572288542</v>
       </c>
       <c r="G19">
-        <v>34.29176736497546</v>
+        <v>34.29176736497563</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35.92665151547993</v>
+        <v>35.92665151547996</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.491811659637445</v>
+        <v>8.491811659637413</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.364368063492224</v>
+        <v>3.36436806349221</v>
       </c>
       <c r="E20">
-        <v>3.414709916604501</v>
+        <v>3.414709916604408</v>
       </c>
       <c r="F20">
-        <v>45.41071597483742</v>
+        <v>45.41071597483736</v>
       </c>
       <c r="G20">
-        <v>35.19295558759591</v>
+        <v>35.19295558759583</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>54.07779467561723</v>
+        <v>54.07779467561718</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>36.70643594178456</v>
+        <v>36.70643594178457</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.042030061725253</v>
+        <v>9.042030061725203</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.787148134649093</v>
+        <v>3.78714813464911</v>
       </c>
       <c r="E21">
-        <v>2.924202929377267</v>
+        <v>2.924202929377358</v>
       </c>
       <c r="F21">
-        <v>49.25146491100153</v>
+        <v>49.25146491100168</v>
       </c>
       <c r="G21">
-        <v>38.24216092954953</v>
+        <v>38.24216092954967</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>57.77927108077664</v>
+        <v>57.77927108077676</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>39.28894455835148</v>
+        <v>39.28894455835155</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.389598523095904</v>
+        <v>9.389598523095868</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>4.074300998705223</v>
       </c>
       <c r="E22">
-        <v>2.602892573305225</v>
+        <v>2.602892573305346</v>
       </c>
       <c r="F22">
-        <v>51.79609512285326</v>
+        <v>51.79609512285329</v>
       </c>
       <c r="G22">
-        <v>40.26412351568236</v>
+        <v>40.26412351568241</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>60.15876598765914</v>
+        <v>60.15876598765917</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.95634991380778</v>
+        <v>40.95634991380776</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.205159677760017</v>
+        <v>9.205159677760047</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.919848350314433</v>
+        <v>3.919848350314494</v>
       </c>
       <c r="E23">
-        <v>2.774361527760517</v>
+        <v>2.774361527760495</v>
       </c>
       <c r="F23">
-        <v>50.43363629567007</v>
+        <v>50.43363629567011</v>
       </c>
       <c r="G23">
-        <v>39.18132128951797</v>
+        <v>39.18132128951802</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>58.89171986775808</v>
+        <v>58.89171986775806</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.482608098108518</v>
+        <v>8.482608098108486</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>3.35760069653389</v>
       </c>
       <c r="E24">
-        <v>3.422705603451257</v>
+        <v>3.422705603451155</v>
       </c>
       <c r="F24">
-        <v>45.34828745846702</v>
+        <v>45.34828745846705</v>
       </c>
       <c r="G24">
-        <v>35.14341542981659</v>
+        <v>35.14341542981661</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>54.01648760480219</v>
+        <v>54.01648760480223</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>36.66377164468536</v>
+        <v>36.66377164468539</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.779591119018065</v>
+        <v>7.779591119018088</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.781395436858626</v>
+        <v>2.781395436858679</v>
       </c>
       <c r="E25">
-        <v>4.117748222836271</v>
+        <v>4.117748222836336</v>
       </c>
       <c r="F25">
-        <v>39.91662290675693</v>
+        <v>39.9166229067569</v>
       </c>
       <c r="G25">
         <v>30.83496828774929</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>48.5307544495636</v>
+        <v>48.53075444956362</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.262021403328644</v>
+        <v>7.262021403328609</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.369903132246875</v>
+        <v>2.369903132246932</v>
       </c>
       <c r="E2">
-        <v>4.629952005582225</v>
+        <v>4.629952005582359</v>
       </c>
       <c r="F2">
-        <v>35.88944552064691</v>
+        <v>35.88944552064688</v>
       </c>
       <c r="G2">
-        <v>27.641347568213</v>
+        <v>27.64134756821298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>44.24807198246018</v>
+        <v>44.24807198246016</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.90664941191555</v>
+        <v>29.90664941191554</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.199878330267252</v>
+        <v>2.199878330267308</v>
       </c>
       <c r="E3">
-        <v>4.980264308528606</v>
+        <v>4.980264308528676</v>
       </c>
       <c r="F3">
-        <v>33.11928480095657</v>
+        <v>33.11928480095664</v>
       </c>
       <c r="G3">
-        <v>25.44355018667907</v>
+        <v>25.44355018667911</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>41.1756426779064</v>
+        <v>41.17564267790631</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.79651370336096</v>
+        <v>27.79651370336092</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.670823281703679</v>
+        <v>6.67082328170368</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.258520839635241</v>
+        <v>2.258520839635259</v>
       </c>
       <c r="E4">
         <v>5.197870711776735</v>
       </c>
       <c r="F4">
-        <v>31.55456691660437</v>
+        <v>31.55456691660441</v>
       </c>
       <c r="G4">
-        <v>24.31061142297616</v>
+        <v>24.31061142297621</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>39.20052200610954</v>
+        <v>39.20052200610957</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.44341600613991</v>
+        <v>26.44341600613992</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576536851957787</v>
+        <v>6.576536851957794</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.286213686288568</v>
+        <v>2.286213686288712</v>
       </c>
       <c r="E5">
         <v>5.287309623402138</v>
       </c>
       <c r="F5">
-        <v>30.92378802870734</v>
+        <v>30.92378802870745</v>
       </c>
       <c r="G5">
-        <v>23.85733690774411</v>
+        <v>23.85733690774416</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>38.37275031703998</v>
+        <v>38.37275031704001</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.87709169742122</v>
+        <v>25.87709169742127</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560808074309207</v>
+        <v>6.560808074309183</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.291019556409022</v>
+        <v>2.291019556409053</v>
       </c>
       <c r="E6">
-        <v>5.302210585498358</v>
+        <v>5.302210585498489</v>
       </c>
       <c r="F6">
-        <v>30.81901008586701</v>
+        <v>30.81901008586692</v>
       </c>
       <c r="G6">
-        <v>23.7822352306179</v>
+        <v>23.78223523061781</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>38.23390057891186</v>
+        <v>38.23390057891196</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.78213976960297</v>
+        <v>25.782139769603</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669556649807793</v>
+        <v>6.669556649807803</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.258879947459409</v>
+        <v>2.258879947459357</v>
       </c>
       <c r="E7">
-        <v>5.199073662704655</v>
+        <v>5.199073662704585</v>
       </c>
       <c r="F7">
-        <v>31.54606261684302</v>
+        <v>31.54606261684291</v>
       </c>
       <c r="G7">
-        <v>24.30448747636715</v>
+        <v>24.30448747636706</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>39.18945182575707</v>
+        <v>39.18945182575712</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.43583937678956</v>
+        <v>26.43583937678957</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.13807406016323</v>
+        <v>7.138074060163249</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.274690853381056</v>
+        <v>2.27469085338101</v>
       </c>
       <c r="E8">
-        <v>4.750299425760654</v>
+        <v>4.750299425760591</v>
       </c>
       <c r="F8">
-        <v>34.93913404084584</v>
+        <v>34.93913404084582</v>
       </c>
       <c r="G8">
-        <v>26.88754842077666</v>
+        <v>26.88754842077664</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>43.20670311386476</v>
+        <v>43.20670311386471</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.19069431927045</v>
+        <v>29.19069431927043</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.010077774956432</v>
+        <v>8.010077774956443</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.972765862439986</v>
+        <v>2.972765862440031</v>
       </c>
       <c r="E9">
-        <v>3.883924933462399</v>
+        <v>3.883924933462363</v>
       </c>
       <c r="F9">
-        <v>41.74662895347466</v>
+        <v>41.74662895347478</v>
       </c>
       <c r="G9">
-        <v>32.28622824519194</v>
+        <v>32.28622824519204</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>50.41369233891613</v>
+        <v>50.41369233891629</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.16243576094279</v>
+        <v>34.16243576094288</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.682878824319559</v>
+        <v>8.682878824319548</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.507051245738301</v>
+        <v>3.507051245738305</v>
       </c>
       <c r="E10">
-        <v>3.247130684909339</v>
+        <v>3.247130684909515</v>
       </c>
       <c r="F10">
-        <v>46.71987707412652</v>
+        <v>46.71987707412647</v>
       </c>
       <c r="G10">
-        <v>36.23199312072784</v>
+        <v>36.2319931207278</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>55.35485969566044</v>
+        <v>55.35485969566039</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>37.59595456730036</v>
+        <v>37.59595456730035</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.007089242149693</v>
+        <v>9.007089242149707</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.759183839935202</v>
+        <v>3.759183839935096</v>
       </c>
       <c r="E11">
-        <v>2.956053124177918</v>
+        <v>2.956053124177825</v>
       </c>
       <c r="F11">
-        <v>49.00095123901383</v>
+        <v>49.00095123901395</v>
       </c>
       <c r="G11">
-        <v>38.04318446958593</v>
+        <v>38.04318446958602</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>57.54194761750153</v>
+        <v>57.5419476175016</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>39.12296275870585</v>
+        <v>39.12296275870592</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.127786811400806</v>
+        <v>9.127786811400808</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.856463056224949</v>
+        <v>3.856463056224994</v>
       </c>
       <c r="E12">
-        <v>2.845660258944627</v>
+        <v>2.845660258944325</v>
       </c>
       <c r="F12">
-        <v>49.87031607590418</v>
+        <v>49.87031607590369</v>
       </c>
       <c r="G12">
-        <v>38.73375871954251</v>
+        <v>38.73375871954212</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>58.36315444418511</v>
+        <v>58.36315444418497</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>39.69755030185634</v>
+        <v>39.69755030185629</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.101882981477335</v>
+        <v>9.101882981477246</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.8354227188461</v>
+        <v>3.83542271884603</v>
       </c>
       <c r="E13">
-        <v>2.869439615975196</v>
+        <v>2.869439615975164</v>
       </c>
       <c r="F13">
-        <v>49.68277996185039</v>
+        <v>49.68277996185051</v>
       </c>
       <c r="G13">
-        <v>38.58477613849551</v>
+        <v>38.58477613849557</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>58.18657180203279</v>
+        <v>58.18657180203284</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>39.57393982250352</v>
+        <v>39.57393982250355</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.017060066883396</v>
+        <v>9.01706006688338</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.767147618276048</v>
+        <v>3.767147618275982</v>
       </c>
       <c r="E14">
-        <v>2.946973361957529</v>
+        <v>2.946973361957533</v>
       </c>
       <c r="F14">
-        <v>49.07234322427676</v>
+        <v>49.07234322427681</v>
       </c>
       <c r="G14">
-        <v>38.0998878423003</v>
+        <v>38.09988784230033</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>57.60963756569082</v>
+        <v>57.60963756569086</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>39.17029868633992</v>
+        <v>39.17029868633993</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.964836586654453</v>
+        <v>8.964836586654439</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.725578838430822</v>
+        <v>3.725578838430858</v>
       </c>
       <c r="E15">
-        <v>2.99444802959639</v>
+        <v>2.994448029596355</v>
       </c>
       <c r="F15">
-        <v>48.69925845857976</v>
+        <v>48.69925845857959</v>
       </c>
       <c r="G15">
-        <v>37.80357606757763</v>
+        <v>37.8035760675775</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>57.25539618843711</v>
+        <v>57.25539618843706</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>38.9226267928781</v>
+        <v>38.92262679287806</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.661395200741852</v>
+        <v>8.661395200741813</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.490796036646007</v>
+        <v>3.490796036646091</v>
       </c>
       <c r="E16">
-        <v>3.266123347784744</v>
+        <v>3.266123347784816</v>
       </c>
       <c r="F16">
-        <v>46.57140802592856</v>
+        <v>46.57140802592873</v>
       </c>
       <c r="G16">
-        <v>36.11414293089055</v>
+        <v>36.11414293089071</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>55.2108459662781</v>
+        <v>55.21084596627809</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.471444123608594</v>
+        <v>8.471444123608636</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.349404633481331</v>
+        <v>3.349404633481214</v>
       </c>
       <c r="E17">
-        <v>3.432394913520759</v>
+        <v>3.432394913520768</v>
       </c>
       <c r="F17">
-        <v>45.27263821953451</v>
+        <v>45.27263821953463</v>
       </c>
       <c r="G17">
-        <v>35.08338480815157</v>
+        <v>35.08338480815163</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>53.94214681370263</v>
+        <v>53.94214681370257</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>36.61204166304321</v>
+        <v>36.61204166304319</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.36076361596113</v>
+        <v>8.360763615961114</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.268898843368983</v>
+        <v>3.268898843368927</v>
       </c>
       <c r="E18">
-        <v>3.527889886796264</v>
+        <v>3.527889886796408</v>
       </c>
       <c r="F18">
-        <v>44.52716815677829</v>
+        <v>44.52716815677839</v>
       </c>
       <c r="G18">
-        <v>34.49187290853632</v>
+        <v>34.49187290853639</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>53.20658963811017</v>
+        <v>53.20658963811007</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>36.10047642066641</v>
+        <v>36.10047642066635</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.323041618918198</v>
+        <v>8.323041618918165</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.241768524775669</v>
+        <v>3.241768524775832</v>
       </c>
       <c r="E19">
-        <v>3.560200824330764</v>
+        <v>3.560200824330892</v>
       </c>
       <c r="F19">
-        <v>44.27495572288542</v>
+        <v>44.27495572288518</v>
       </c>
       <c r="G19">
-        <v>34.29176736497563</v>
+        <v>34.29176736497546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>35.92665151547996</v>
+        <v>35.92665151547993</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.491811659637413</v>
+        <v>8.491811659637445</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.36436806349221</v>
+        <v>3.364368063492224</v>
       </c>
       <c r="E20">
-        <v>3.414709916604408</v>
+        <v>3.414709916604501</v>
       </c>
       <c r="F20">
-        <v>45.41071597483736</v>
+        <v>45.41071597483742</v>
       </c>
       <c r="G20">
-        <v>35.19295558759583</v>
+        <v>35.19295558759591</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>54.07779467561718</v>
+        <v>54.07779467561723</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>36.70643594178457</v>
+        <v>36.70643594178456</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.042030061725203</v>
+        <v>9.042030061725253</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.78714813464911</v>
+        <v>3.787148134649093</v>
       </c>
       <c r="E21">
-        <v>2.924202929377358</v>
+        <v>2.924202929377267</v>
       </c>
       <c r="F21">
-        <v>49.25146491100168</v>
+        <v>49.25146491100153</v>
       </c>
       <c r="G21">
-        <v>38.24216092954967</v>
+        <v>38.24216092954953</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>57.77927108077676</v>
+        <v>57.77927108077664</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>39.28894455835155</v>
+        <v>39.28894455835148</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,7 +1172,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.389598523095868</v>
+        <v>9.389598523095904</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>4.074300998705223</v>
       </c>
       <c r="E22">
-        <v>2.602892573305346</v>
+        <v>2.602892573305225</v>
       </c>
       <c r="F22">
-        <v>51.79609512285329</v>
+        <v>51.79609512285326</v>
       </c>
       <c r="G22">
-        <v>40.26412351568241</v>
+        <v>40.26412351568236</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>60.15876598765917</v>
+        <v>60.15876598765914</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>40.95634991380776</v>
+        <v>40.95634991380778</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.205159677760047</v>
+        <v>9.205159677760017</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.919848350314494</v>
+        <v>3.919848350314433</v>
       </c>
       <c r="E23">
-        <v>2.774361527760495</v>
+        <v>2.774361527760517</v>
       </c>
       <c r="F23">
-        <v>50.43363629567011</v>
+        <v>50.43363629567007</v>
       </c>
       <c r="G23">
-        <v>39.18132128951802</v>
+        <v>39.18132128951797</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>58.89171986775806</v>
+        <v>58.89171986775808</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.482608098108486</v>
+        <v>8.482608098108518</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>3.35760069653389</v>
       </c>
       <c r="E24">
-        <v>3.422705603451155</v>
+        <v>3.422705603451257</v>
       </c>
       <c r="F24">
-        <v>45.34828745846705</v>
+        <v>45.34828745846702</v>
       </c>
       <c r="G24">
-        <v>35.14341542981661</v>
+        <v>35.14341542981659</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>54.01648760480223</v>
+        <v>54.01648760480219</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>36.66377164468539</v>
+        <v>36.66377164468536</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.779591119018088</v>
+        <v>7.779591119018065</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.781395436858679</v>
+        <v>2.781395436858626</v>
       </c>
       <c r="E25">
-        <v>4.117748222836336</v>
+        <v>4.117748222836271</v>
       </c>
       <c r="F25">
-        <v>39.9166229067569</v>
+        <v>39.91662290675693</v>
       </c>
       <c r="G25">
         <v>30.83496828774929</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>48.53075444956362</v>
+        <v>48.5307544495636</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.262021403328609</v>
+        <v>7.261984205870084</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.369903132246932</v>
+        <v>2.362823651846864</v>
       </c>
       <c r="E2">
-        <v>4.629952005582359</v>
+        <v>4.626461947395426</v>
       </c>
       <c r="F2">
-        <v>35.88944552064688</v>
+        <v>35.85178178565013</v>
       </c>
       <c r="G2">
-        <v>27.64134756821298</v>
+        <v>27.67671369296089</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.48459848075073</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>44.24807198246016</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>44.24431599722223</v>
       </c>
       <c r="L2">
-        <v>29.90664941191554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.90441718794867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.899101422516475</v>
+        <v>6.899077421484447</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.199878330267308</v>
+        <v>2.194361550410514</v>
       </c>
       <c r="E3">
-        <v>4.980264308528676</v>
+        <v>4.977382231260206</v>
       </c>
       <c r="F3">
-        <v>33.11928480095664</v>
+        <v>33.08461987312298</v>
       </c>
       <c r="G3">
-        <v>25.44355018667911</v>
+        <v>25.47627084370151</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25.46170662216009</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>41.17564267790631</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>41.17264686479351</v>
       </c>
       <c r="L3">
-        <v>27.79651370336092</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.79475972381811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.67082328170368</v>
+        <v>6.670806090700139</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.258520839635259</v>
+        <v>2.253606524522983</v>
       </c>
       <c r="E4">
-        <v>5.197870711776735</v>
+        <v>5.195369288723336</v>
       </c>
       <c r="F4">
-        <v>31.55456691660441</v>
+        <v>31.52265259382954</v>
       </c>
       <c r="G4">
-        <v>24.31061142297621</v>
+        <v>24.1044278080505</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>24.34150571740071</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>39.20052200610957</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>39.19797106139631</v>
       </c>
       <c r="L4">
-        <v>26.44341600613992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.44193771582979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576536851957794</v>
+        <v>6.576522150420883</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.286213686288712</v>
+        <v>2.28152890964795</v>
       </c>
       <c r="E5">
-        <v>5.287309623402138</v>
+        <v>5.284965330907236</v>
       </c>
       <c r="F5">
-        <v>30.92378802870745</v>
+        <v>30.89264391909951</v>
       </c>
       <c r="G5">
-        <v>23.85733690774416</v>
+        <v>23.54978053512788</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>23.88770044542061</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>38.37275031704001</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>38.37037677875701</v>
       </c>
       <c r="L5">
-        <v>25.87709169742127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.87572232927802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560808074309183</v>
+        <v>6.560793769911371</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.291019556409053</v>
+        <v>2.286371947581482</v>
       </c>
       <c r="E6">
-        <v>5.302210585498489</v>
+        <v>5.299892510562885</v>
       </c>
       <c r="F6">
-        <v>30.81901008586692</v>
+        <v>30.78799421849202</v>
       </c>
       <c r="G6">
-        <v>23.78223523061781</v>
+        <v>23.46108219946514</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>23.8125111305986</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>38.23390057891196</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>38.23155630782991</v>
       </c>
       <c r="L6">
-        <v>25.782139769603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.7807883099409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669556649807803</v>
+        <v>6.669539493487811</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.258879947459357</v>
+        <v>2.253968792042464</v>
       </c>
       <c r="E7">
-        <v>5.199073662704585</v>
+        <v>5.196574350413596</v>
       </c>
       <c r="F7">
-        <v>31.54606261684291</v>
+        <v>31.51415865922435</v>
       </c>
       <c r="G7">
-        <v>24.30448747636706</v>
+        <v>24.09683584258522</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>24.33537458080547</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>39.18945182575712</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>39.18690328733663</v>
       </c>
       <c r="L7">
-        <v>26.43583937678957</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.4343625679816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138074060163249</v>
+        <v>7.138041707241611</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.27469085338101</v>
+        <v>2.267789216025654</v>
       </c>
       <c r="E8">
-        <v>4.750299425760591</v>
+        <v>4.747017571030049</v>
       </c>
       <c r="F8">
-        <v>34.93913404084582</v>
+        <v>34.90250511817526</v>
       </c>
       <c r="G8">
-        <v>26.88754842077664</v>
+        <v>26.92200835145416</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>26.76225279131662</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>43.20670311386471</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>43.20321482813105</v>
       </c>
       <c r="L8">
-        <v>29.19069431927043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.1886314351986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.010077774956443</v>
+        <v>8.010003089211416</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.972765862440031</v>
+        <v>2.964546813118102</v>
       </c>
       <c r="E9">
-        <v>3.883924933462363</v>
+        <v>3.87916015808057</v>
       </c>
       <c r="F9">
-        <v>41.74662895347478</v>
+        <v>41.70239576957324</v>
       </c>
       <c r="G9">
-        <v>32.28622824519204</v>
+        <v>32.32709387725711</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.96791702866915</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>50.41369233891629</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>50.4080986323681</v>
       </c>
       <c r="L9">
-        <v>34.16243576094288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.15901984946173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.682878824319548</v>
+        <v>8.682708115657602</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.507051245738305</v>
+        <v>3.497795527910934</v>
       </c>
       <c r="E10">
-        <v>3.247130684909515</v>
+        <v>3.241304024036485</v>
       </c>
       <c r="F10">
-        <v>46.71987707412647</v>
+        <v>46.66970721271335</v>
       </c>
       <c r="G10">
-        <v>36.2319931207278</v>
+        <v>36.27731497863915</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>35.80879252623611</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>55.35485969566039</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>55.34739720328048</v>
       </c>
       <c r="L10">
-        <v>37.59595456730035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>37.59130677055183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.007089242149707</v>
+        <v>9.006890915334498</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.759183839935096</v>
+        <v>3.749426215933181</v>
       </c>
       <c r="E11">
-        <v>2.956053124177825</v>
+        <v>2.949753796352774</v>
       </c>
       <c r="F11">
-        <v>49.00095123901395</v>
+        <v>48.94790951764079</v>
       </c>
       <c r="G11">
-        <v>38.04318446958602</v>
+        <v>38.09044939172115</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>37.57908397285832</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>57.5419476175016</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>57.53351203000799</v>
       </c>
       <c r="L11">
-        <v>39.12296275870592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>39.11766501652946</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.127786811400808</v>
+        <v>9.127577222981301</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.856463056224994</v>
+        <v>3.846509060985535</v>
       </c>
       <c r="E12">
-        <v>2.845660258944325</v>
+        <v>2.839184965949624</v>
       </c>
       <c r="F12">
-        <v>49.87031607590369</v>
+        <v>49.81615049723622</v>
       </c>
       <c r="G12">
-        <v>38.73375871954212</v>
+        <v>38.78174339018575</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>38.25506637014524</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>58.36315444418497</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>58.35432623545456</v>
       </c>
       <c r="L12">
-        <v>39.69755030185629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>39.69198890486631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.101882981477246</v>
+        <v>9.101675858125871</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.83542271884603</v>
+        <v>3.825511335531147</v>
       </c>
       <c r="E13">
-        <v>2.869439615975164</v>
+        <v>2.863002038661132</v>
       </c>
       <c r="F13">
-        <v>49.68277996185051</v>
+        <v>49.62885827609609</v>
       </c>
       <c r="G13">
-        <v>38.58477613849557</v>
+        <v>38.63260659503205</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>38.10918780672608</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>58.18657180203284</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>58.17782935248972</v>
       </c>
       <c r="L13">
-        <v>39.57393982250355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>39.56843608100659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.01706006688338</v>
+        <v>9.01686083106506</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.767147618275982</v>
+        <v>3.757373979006454</v>
       </c>
       <c r="E14">
-        <v>2.946973361957533</v>
+        <v>2.940659480776601</v>
       </c>
       <c r="F14">
-        <v>49.07234322427681</v>
+        <v>49.01920985345532</v>
       </c>
       <c r="G14">
-        <v>38.09988784230033</v>
+        <v>38.14721232941558</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>37.63456935923958</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>57.60963756569086</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>57.60117020584433</v>
       </c>
       <c r="L14">
-        <v>39.17029868633993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>39.16497963734071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.964836586654439</v>
+        <v>8.964642070452552</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.725578838430858</v>
+        <v>3.715888679114138</v>
       </c>
       <c r="E15">
-        <v>2.994448029596355</v>
+        <v>2.988210388073581</v>
       </c>
       <c r="F15">
-        <v>48.69925845857959</v>
+        <v>48.64660279973865</v>
       </c>
       <c r="G15">
-        <v>37.8035760675775</v>
+        <v>37.85058839569599</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>37.34466250354404</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>57.25539618843706</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>57.24709395609033</v>
       </c>
       <c r="L15">
-        <v>38.92262679287806</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>38.91741842283418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.661395200741813</v>
+        <v>8.661226196973884</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.490796036646091</v>
+        <v>3.481572358627741</v>
       </c>
       <c r="E16">
-        <v>3.266123347784816</v>
+        <v>3.260327878049971</v>
       </c>
       <c r="F16">
-        <v>46.57140802592873</v>
+        <v>46.52142149082547</v>
       </c>
       <c r="G16">
-        <v>36.11414293089071</v>
+        <v>36.15933581284468</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>35.69374500609056</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>55.21084596627809</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>55.20344409128437</v>
       </c>
       <c r="L16">
-        <v>37.4955675740548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>37.49096008891756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.471444123608636</v>
+        <v>8.471289573732758</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.349404633481214</v>
+        <v>3.340458183890784</v>
       </c>
       <c r="E17">
-        <v>3.432394913520768</v>
+        <v>3.426873971379736</v>
       </c>
       <c r="F17">
-        <v>45.27263821953463</v>
+        <v>45.22423811557793</v>
       </c>
       <c r="G17">
-        <v>35.08338480815163</v>
+        <v>35.12743766452792</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>34.68829791318922</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>53.94214681370257</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>53.93526184345986</v>
       </c>
       <c r="L17">
-        <v>36.61204166304319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>36.6077770308304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.360763615961114</v>
+        <v>8.360616999515983</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.268898843368927</v>
+        <v>3.260109144620823</v>
       </c>
       <c r="E18">
-        <v>3.527889886796408</v>
+        <v>3.522527679236032</v>
       </c>
       <c r="F18">
-        <v>44.52716815677839</v>
+        <v>44.47966530145433</v>
       </c>
       <c r="G18">
-        <v>34.49187290853639</v>
+        <v>34.53526244704113</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>34.11199005312044</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>53.20658963811007</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>53.19999089106238</v>
       </c>
       <c r="L18">
-        <v>36.10047642066635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>36.09640091334457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.323041618918165</v>
+        <v>8.322932084216237</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.241768524775832</v>
+        <v>3.233031483252242</v>
       </c>
       <c r="E19">
-        <v>3.560200824330892</v>
+        <v>3.554892483087103</v>
       </c>
       <c r="F19">
-        <v>44.27495572288518</v>
+        <v>44.22775433979357</v>
       </c>
       <c r="G19">
-        <v>34.29176736497546</v>
+        <v>34.33493110364832</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>33.91714595271118</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>52.95649423549832</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>52.94999065711521</v>
       </c>
       <c r="L19">
-        <v>35.92665151547993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>35.9226387725336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.491811659637445</v>
+        <v>8.49165561168776</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.364368063492224</v>
+        <v>3.355392394181531</v>
       </c>
       <c r="E20">
-        <v>3.414709916604501</v>
+        <v>3.409159658464629</v>
       </c>
       <c r="F20">
-        <v>45.41071597483742</v>
+        <v>45.36214864041485</v>
       </c>
       <c r="G20">
-        <v>35.19295558759591</v>
+        <v>35.23713061207447</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>34.79510808642957</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>54.07779467561723</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>54.07085586726039</v>
       </c>
       <c r="L20">
-        <v>36.70643594178456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>36.70213567668636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.042030061725253</v>
+        <v>9.041828532892561</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.787148134649093</v>
+        <v>3.777334227144249</v>
       </c>
       <c r="E21">
-        <v>2.924202929377267</v>
+        <v>2.917852611310816</v>
       </c>
       <c r="F21">
-        <v>49.25146491100153</v>
+        <v>49.19810109427875</v>
       </c>
       <c r="G21">
-        <v>38.24216092954953</v>
+        <v>38.2896345083231</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>37.77380225374284</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>57.77927108077664</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>57.77072363825631</v>
       </c>
       <c r="L21">
-        <v>39.28894455835148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>39.28357178222485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.389598523095904</v>
+        <v>9.389362437152739</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.074300998705223</v>
+        <v>4.063900958064568</v>
       </c>
       <c r="E22">
-        <v>2.602892573305225</v>
+        <v>2.596039703657049</v>
       </c>
       <c r="F22">
-        <v>51.79609512285326</v>
+        <v>51.73937571654916</v>
       </c>
       <c r="G22">
-        <v>40.26412351568236</v>
+        <v>40.31365596651473</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>39.75487054745412</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>60.15876598765914</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>60.14902166837422</v>
       </c>
       <c r="L22">
-        <v>40.95634991380778</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>40.95017042036971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.205159677760017</v>
+        <v>9.204942564102888</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.919848350314433</v>
+        <v>3.909765501535382</v>
       </c>
       <c r="E23">
-        <v>2.774361527760517</v>
+        <v>2.767773844241865</v>
       </c>
       <c r="F23">
-        <v>50.43363629567007</v>
+        <v>50.37873313611657</v>
       </c>
       <c r="G23">
-        <v>39.18132128951797</v>
+        <v>39.2297655927493</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>38.69344542967118</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>58.89171986775808</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>58.88263045240557</v>
       </c>
       <c r="L23">
-        <v>40.06774595422313</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>40.06200872707662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.482608098108518</v>
+        <v>8.482452728596094</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.35760069653389</v>
+        <v>3.348638245518917</v>
       </c>
       <c r="E24">
-        <v>3.422705603451257</v>
+        <v>3.417168596336427</v>
       </c>
       <c r="F24">
-        <v>45.34828745846702</v>
+        <v>45.29979577425156</v>
       </c>
       <c r="G24">
-        <v>35.14341542981659</v>
+        <v>35.18753524643874</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>34.74681396023374</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>54.01648760480219</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>54.00957317031775</v>
       </c>
       <c r="L24">
-        <v>36.66377164468536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>36.65948751376238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.779591119018065</v>
+        <v>7.779529598926012</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.781395436858626</v>
+        <v>2.773540927679881</v>
       </c>
       <c r="E25">
-        <v>4.117748222836271</v>
+        <v>4.113379910696408</v>
       </c>
       <c r="F25">
-        <v>39.91662290675693</v>
+        <v>39.87448319408988</v>
       </c>
       <c r="G25">
-        <v>30.83496828774929</v>
+        <v>30.87413712768803</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.56194015338031</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>48.5307544495636</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>48.52577265320602</v>
       </c>
       <c r="L25">
-        <v>32.85956355836394</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>32.85654538218334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.261984205870084</v>
+        <v>7.256819457486576</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.362823651846864</v>
+        <v>9.31317829840661</v>
       </c>
       <c r="E2">
-        <v>4.626461947395426</v>
+        <v>13.92619788353272</v>
       </c>
       <c r="F2">
-        <v>35.85178178565013</v>
+        <v>36.47445034023389</v>
       </c>
       <c r="G2">
-        <v>27.67671369296089</v>
+        <v>1.957915560298285</v>
       </c>
       <c r="H2">
-        <v>27.48459848075073</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.849710414674367</v>
       </c>
       <c r="K2">
-        <v>44.24431599722223</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.90441718794867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>70.5323032344384</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>31.28632237918158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.899077421484447</v>
+        <v>6.892938942701051</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.194361550410514</v>
+        <v>8.658314900269039</v>
       </c>
       <c r="E3">
-        <v>4.977382231260206</v>
+        <v>13.07156626841886</v>
       </c>
       <c r="F3">
-        <v>33.08461987312298</v>
+        <v>33.16369908501962</v>
       </c>
       <c r="G3">
-        <v>25.47627084370151</v>
+        <v>1.987702979304864</v>
       </c>
       <c r="H3">
-        <v>25.46170662216009</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.231109587855496</v>
       </c>
       <c r="K3">
-        <v>41.17264686479351</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.79475972381811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>65.17774063669189</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>28.3212557221979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.670806090700139</v>
+        <v>6.664799941273758</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.253606524522983</v>
+        <v>8.248512980281852</v>
       </c>
       <c r="E4">
-        <v>5.195369288723336</v>
+        <v>12.54070664013973</v>
       </c>
       <c r="F4">
-        <v>31.52265259382954</v>
+        <v>31.6410131820427</v>
       </c>
       <c r="G4">
-        <v>24.1044278080505</v>
+        <v>2.005559275084364</v>
       </c>
       <c r="H4">
-        <v>24.34150571740071</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.845041019748462</v>
       </c>
       <c r="K4">
-        <v>39.19797106139631</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.44193771582979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>61.88376125336811</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.79805267408491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.576522150420883</v>
+        <v>6.570716868824301</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.28152890964795</v>
+        <v>8.079114725670301</v>
       </c>
       <c r="E5">
-        <v>5.284965330907236</v>
+        <v>12.32240928509702</v>
       </c>
       <c r="F5">
-        <v>30.89264391909951</v>
+        <v>31.0688479819571</v>
       </c>
       <c r="G5">
-        <v>23.54978053512788</v>
+        <v>2.012771735222233</v>
       </c>
       <c r="H5">
-        <v>23.88770044542061</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.685551145610891</v>
       </c>
       <c r="K5">
-        <v>38.37037677875701</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.87572232927802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>60.51948422607282</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.29169592265354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.560793769911371</v>
+        <v>6.555029799264267</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.286371947581482</v>
+        <v>8.050830190487636</v>
       </c>
       <c r="E6">
-        <v>5.299892510562885</v>
+        <v>12.28603294685541</v>
       </c>
       <c r="F6">
-        <v>30.78799421849202</v>
+        <v>30.97664021176062</v>
       </c>
       <c r="G6">
-        <v>23.46108219946514</v>
+        <v>2.013966599911209</v>
       </c>
       <c r="H6">
-        <v>23.8125111305986</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.658922416100369</v>
       </c>
       <c r="K6">
-        <v>38.23155630782991</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.7807883099409</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>60.29126458476198</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.20947226777307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.669539493487811</v>
+        <v>6.663535500493032</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.253968792042464</v>
+        <v>8.246238652924639</v>
       </c>
       <c r="E7">
-        <v>5.196574350413596</v>
+        <v>12.53777101818208</v>
       </c>
       <c r="F7">
-        <v>31.51415865922435</v>
+        <v>31.6331065377202</v>
       </c>
       <c r="G7">
-        <v>24.09683584258522</v>
+        <v>2.005656752903638</v>
       </c>
       <c r="H7">
-        <v>24.33537458080547</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.842899532307713</v>
       </c>
       <c r="K7">
-        <v>39.18690328733663</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.4343625679816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>61.86547317225708</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.79109756662808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.138041707241611</v>
+        <v>7.132364583704227</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.267789216025654</v>
+        <v>9.088659707138754</v>
       </c>
       <c r="E8">
-        <v>4.747017571030049</v>
+        <v>13.6324712028365</v>
       </c>
       <c r="F8">
-        <v>34.90250511817526</v>
+        <v>35.2884696166286</v>
       </c>
       <c r="G8">
-        <v>26.92200835145416</v>
+        <v>1.968306942523127</v>
       </c>
       <c r="H8">
-        <v>26.76225279131662</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.63730847786424</v>
       </c>
       <c r="K8">
-        <v>43.20321482813105</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.1886314351986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>68.70408125953081</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>30.24244143606361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.010003089211416</v>
+        <v>8.013118138167743</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.964546813118102</v>
+        <v>10.71036435304364</v>
       </c>
       <c r="E9">
-        <v>3.87916015808057</v>
+        <v>16.03984864097928</v>
       </c>
       <c r="F9">
-        <v>41.70239576957324</v>
+        <v>44.83617416585023</v>
       </c>
       <c r="G9">
-        <v>32.32709387725711</v>
+        <v>1.888741954915677</v>
       </c>
       <c r="H9">
-        <v>31.96791702866915</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.183147970059503</v>
       </c>
       <c r="K9">
-        <v>50.4080986323681</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.15901984946173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>81.74342330829862</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>38.3942593464277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.682708115657602</v>
+        <v>8.711670707548352</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.497795527910934</v>
+        <v>11.95646484628447</v>
       </c>
       <c r="E10">
-        <v>3.241304024036485</v>
+        <v>17.91741837932526</v>
       </c>
       <c r="F10">
-        <v>46.66970721271335</v>
+        <v>53.64071197764854</v>
       </c>
       <c r="G10">
-        <v>36.27731497863915</v>
+        <v>1.81978955297559</v>
       </c>
       <c r="H10">
-        <v>35.80879252623611</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.39646565589816</v>
       </c>
       <c r="K10">
-        <v>55.34739720328048</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>37.59130677055183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>91.50251957595033</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>45.60552475893375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.006890915334498</v>
+        <v>9.052516835245187</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.749426215933181</v>
+        <v>12.57074845301004</v>
       </c>
       <c r="E11">
-        <v>2.949753796352774</v>
+        <v>18.81980498735495</v>
       </c>
       <c r="F11">
-        <v>48.94790951764079</v>
+        <v>58.43883371070079</v>
       </c>
       <c r="G11">
-        <v>38.09044939172115</v>
+        <v>1.782969423707392</v>
       </c>
       <c r="H11">
-        <v>37.57908397285832</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>11.00502979110065</v>
       </c>
       <c r="K11">
-        <v>57.53351203000799</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>39.11766501652946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>96.22101264347206</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>49.46922105664006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.127577222981301</v>
+        <v>9.180929720246638</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.846509060985535</v>
+        <v>12.81682622501116</v>
       </c>
       <c r="E12">
-        <v>2.839184965949624</v>
+        <v>19.17623619945915</v>
       </c>
       <c r="F12">
-        <v>49.81615049723622</v>
+        <v>60.44664193022895</v>
       </c>
       <c r="G12">
-        <v>38.78174339018575</v>
+        <v>1.76765469972138</v>
       </c>
       <c r="H12">
-        <v>38.25506637014524</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11.25087395453484</v>
       </c>
       <c r="K12">
-        <v>58.35432623545456</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>39.69198890486631</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>98.09154260014108</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>51.07613832848411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.101675858125871</v>
+        <v>9.15328547701805</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.825511335531147</v>
+        <v>12.76305077466941</v>
       </c>
       <c r="E13">
-        <v>2.863002038661132</v>
+        <v>19.09861148489746</v>
       </c>
       <c r="F13">
-        <v>49.62885827609609</v>
+        <v>60.00365594385346</v>
       </c>
       <c r="G13">
-        <v>38.63260659503205</v>
+        <v>1.771029805142142</v>
       </c>
       <c r="H13">
-        <v>38.10918780672608</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.19704889933487</v>
       </c>
       <c r="K13">
-        <v>58.17782935248972</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>39.56843608100659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>97.68380375768176</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>50.72204422735675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.01686083106506</v>
+        <v>9.063088621447285</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.757373979006454</v>
+        <v>12.59066231639253</v>
       </c>
       <c r="E14">
-        <v>2.940659480776601</v>
+        <v>18.84876323543097</v>
       </c>
       <c r="F14">
-        <v>49.01920985345532</v>
+        <v>58.59948159252997</v>
       </c>
       <c r="G14">
-        <v>38.14721232941558</v>
+        <v>1.781742362751984</v>
       </c>
       <c r="H14">
-        <v>37.63456935923958</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.02488084600734</v>
       </c>
       <c r="K14">
-        <v>57.60117020584433</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>39.16497963734071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>96.37282639457943</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>49.59798750332821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.964642070452552</v>
+        <v>9.007784530186703</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.715888679114138</v>
+        <v>12.48712500910493</v>
       </c>
       <c r="E15">
-        <v>2.988210388073581</v>
+        <v>18.69798955671242</v>
       </c>
       <c r="F15">
-        <v>48.64660279973865</v>
+        <v>57.76774605445774</v>
       </c>
       <c r="G15">
-        <v>37.85058839569599</v>
+        <v>1.788098822746577</v>
       </c>
       <c r="H15">
-        <v>37.34466250354404</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.92175460063738</v>
       </c>
       <c r="K15">
-        <v>57.24709395609033</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>38.91741842283418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>95.5826845458333</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>48.93092990236595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.661226196973884</v>
+        <v>8.689255248944432</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.481572358627741</v>
+        <v>11.91772065166557</v>
       </c>
       <c r="E16">
-        <v>3.260327878049971</v>
+        <v>17.85994459719415</v>
       </c>
       <c r="F16">
-        <v>46.52142149082547</v>
+        <v>53.34825317543327</v>
       </c>
       <c r="G16">
-        <v>36.15933581284468</v>
+        <v>1.822046503356044</v>
       </c>
       <c r="H16">
-        <v>35.69374500609056</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.35832483226746</v>
       </c>
       <c r="K16">
-        <v>55.20344409128437</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>37.49096008891756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>91.20272413341233</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>45.36878661030325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.471289573732758</v>
+        <v>8.491807040016489</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.340458183890784</v>
+        <v>11.58378068271202</v>
       </c>
       <c r="E17">
-        <v>3.426873971379736</v>
+        <v>17.36203227818506</v>
       </c>
       <c r="F17">
-        <v>45.22423811557793</v>
+        <v>50.87728180839974</v>
       </c>
       <c r="G17">
-        <v>35.12743766452792</v>
+        <v>1.841189060794689</v>
       </c>
       <c r="H17">
-        <v>34.68829791318922</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.03074256669134</v>
       </c>
       <c r="K17">
-        <v>53.93526184345986</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.6077770308304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>88.60867252042614</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>43.36197906673732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.360616999515983</v>
+        <v>8.377305285888678</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.260109144620823</v>
+        <v>11.39561128387</v>
       </c>
       <c r="E18">
-        <v>3.522527679236032</v>
+        <v>17.07953820966599</v>
       </c>
       <c r="F18">
-        <v>44.47966530145433</v>
+        <v>49.52416619111197</v>
       </c>
       <c r="G18">
-        <v>34.53526244704113</v>
+        <v>1.851735513948785</v>
       </c>
       <c r="H18">
-        <v>34.11199005312044</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.847046375617218</v>
       </c>
       <c r="K18">
-        <v>53.19999089106238</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.09640091334457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>87.13924802172097</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>42.25754756213241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.322932084216237</v>
+        <v>8.338362657368</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.233031483252242</v>
+        <v>11.33244612074673</v>
       </c>
       <c r="E19">
-        <v>3.554892483087103</v>
+        <v>16.98440973220939</v>
       </c>
       <c r="F19">
-        <v>44.22775433979357</v>
+        <v>49.07628830287838</v>
       </c>
       <c r="G19">
-        <v>34.33493110364832</v>
+        <v>1.855237799367977</v>
       </c>
       <c r="H19">
-        <v>33.91714595271118</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.785522409940242</v>
       </c>
       <c r="K19">
-        <v>52.94999065711521</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>35.9226387725336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>86.64477541400085</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>41.89104039250925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.49165561168776</v>
+        <v>8.512919025485507</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.355392394181531</v>
+        <v>11.61889344282158</v>
       </c>
       <c r="E20">
-        <v>3.409159658464629</v>
+        <v>17.41459531160004</v>
       </c>
       <c r="F20">
-        <v>45.36214864041485</v>
+        <v>51.13290560035794</v>
       </c>
       <c r="G20">
-        <v>35.23713061207447</v>
+        <v>1.839202124352147</v>
       </c>
       <c r="H20">
-        <v>34.79510808642957</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.06509066537209</v>
       </c>
       <c r="K20">
-        <v>54.07085586726039</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.70213567668636</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>88.88226316426935</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>43.57016430959408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.041828532892561</v>
+        <v>9.089591122629846</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.777334227144249</v>
+        <v>12.64084631096056</v>
       </c>
       <c r="E21">
-        <v>2.917852611310816</v>
+        <v>18.92165203342747</v>
       </c>
       <c r="F21">
-        <v>49.19810109427875</v>
+        <v>59.00575279194449</v>
       </c>
       <c r="G21">
-        <v>38.2896345083231</v>
+        <v>1.77864056739164</v>
       </c>
       <c r="H21">
-        <v>37.77380225374284</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.07494089077487</v>
       </c>
       <c r="K21">
-        <v>57.77072363825631</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>39.28357178222485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>96.75506618549309</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>49.92347701138543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.389362437152739</v>
+        <v>9.46357030634524</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.063900958064568</v>
+        <v>13.39719459583393</v>
       </c>
       <c r="E22">
-        <v>2.596039703657049</v>
+        <v>20.00365314883991</v>
       </c>
       <c r="F22">
-        <v>51.73937571654916</v>
+        <v>65.37908944183386</v>
       </c>
       <c r="G22">
-        <v>40.31365596651473</v>
+        <v>1.730190789429007</v>
       </c>
       <c r="H22">
-        <v>39.75487054745412</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.83528385688785</v>
       </c>
       <c r="K22">
-        <v>60.14902166837422</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>40.95017042036971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>102.4522771349241</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>55.00384110371348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.204942564102888</v>
+        <v>9.263807164201493</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.909765501535382</v>
+        <v>12.98093193477586</v>
       </c>
       <c r="E23">
-        <v>2.767773844241865</v>
+        <v>19.41216237035218</v>
       </c>
       <c r="F23">
-        <v>50.37873313611657</v>
+        <v>61.81314865405428</v>
       </c>
       <c r="G23">
-        <v>39.2297655927493</v>
+        <v>1.757255455427156</v>
       </c>
       <c r="H23">
-        <v>38.69344542967118</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.41547672796721</v>
       </c>
       <c r="K23">
-        <v>58.88263045240557</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>40.06200872707662</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>99.33213458076808</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>52.16694980411748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.482452728596094</v>
+        <v>8.503377410527843</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.348638245518917</v>
+        <v>11.60300746848721</v>
       </c>
       <c r="E24">
-        <v>3.417168596336427</v>
+        <v>17.39082031218797</v>
       </c>
       <c r="F24">
-        <v>45.29979577425156</v>
+        <v>51.01713245731031</v>
       </c>
       <c r="G24">
-        <v>35.18753524643874</v>
+        <v>1.840101812585774</v>
       </c>
       <c r="H24">
-        <v>34.74681396023374</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.04954788623072</v>
       </c>
       <c r="K24">
-        <v>54.00957317031775</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.65948751376238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>88.75850713733381</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>43.47589373268691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.779529598926012</v>
+        <v>7.778980197450737</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.773540927679881</v>
+        <v>10.26941074298115</v>
       </c>
       <c r="E25">
-        <v>4.113379910696408</v>
+        <v>15.362257010961</v>
       </c>
       <c r="F25">
-        <v>39.87448319408988</v>
+        <v>42.0203624746587</v>
       </c>
       <c r="G25">
-        <v>30.87413712768803</v>
+        <v>1.91144728768332</v>
       </c>
       <c r="H25">
-        <v>30.56194015338031</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.759729102410764</v>
       </c>
       <c r="K25">
-        <v>48.52577265320602</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.85654538218334</v>
+        <v>78.23538916405442</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>36.03903632939389</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.256819457486576</v>
+        <v>8.861774493160103</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.31317829840661</v>
+        <v>4.035538321361962</v>
       </c>
       <c r="E2">
-        <v>13.92619788353272</v>
+        <v>6.569352109262738</v>
       </c>
       <c r="F2">
-        <v>36.47445034023389</v>
+        <v>48.62279850477031</v>
       </c>
       <c r="G2">
-        <v>1.957915560298285</v>
+        <v>2.173976460215166</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>31.60557637403022</v>
       </c>
       <c r="J2">
-        <v>7.849710414674367</v>
+        <v>6.388853816830776</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.2057811960243</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.49848773650678</v>
       </c>
       <c r="M2">
-        <v>70.5323032344384</v>
+        <v>10.08266383894751</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.28632237918158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.892938942701051</v>
+        <v>8.508180057239324</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.658314900269039</v>
+        <v>3.901132966687654</v>
       </c>
       <c r="E3">
-        <v>13.07156626841886</v>
+        <v>6.387735144786843</v>
       </c>
       <c r="F3">
-        <v>33.16369908501962</v>
+        <v>47.35792695688865</v>
       </c>
       <c r="G3">
-        <v>1.987702979304864</v>
+        <v>2.184083216431123</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>31.13056778005496</v>
       </c>
       <c r="J3">
-        <v>7.231109587855496</v>
+        <v>6.356416256238232</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.46409917528001</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.321536257982599</v>
       </c>
       <c r="M3">
-        <v>65.17774063669189</v>
+        <v>9.913947755750959</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.3212557221979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.664799941273758</v>
+        <v>8.290878462228788</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.248512980281852</v>
+        <v>3.818793704390317</v>
       </c>
       <c r="E4">
-        <v>12.54070664013973</v>
+        <v>6.274783758886561</v>
       </c>
       <c r="F4">
-        <v>31.6410131820427</v>
+        <v>46.5907378577654</v>
       </c>
       <c r="G4">
-        <v>2.005559275084364</v>
+        <v>2.190445803733474</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>30.84708007598622</v>
       </c>
       <c r="J4">
-        <v>6.845041019748462</v>
+        <v>6.336453642664786</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.00072361282207</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.216984687222533</v>
       </c>
       <c r="M4">
-        <v>61.88376125336811</v>
+        <v>9.815814230209552</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.79805267408491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.570716868824301</v>
+        <v>8.202422831503231</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.079114725670301</v>
+        <v>3.785295036147243</v>
       </c>
       <c r="E5">
-        <v>12.32240928509702</v>
+        <v>6.228381627555645</v>
       </c>
       <c r="F5">
-        <v>31.0688479819571</v>
+        <v>46.28065743954771</v>
       </c>
       <c r="G5">
-        <v>2.012771735222233</v>
+        <v>2.193080121911327</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>30.73359117075721</v>
       </c>
       <c r="J5">
-        <v>6.685551145610891</v>
+        <v>6.328295745485035</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.8101126661178</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.175423974631334</v>
       </c>
       <c r="M5">
-        <v>60.51948422607282</v>
+        <v>9.777207846220138</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.29169592265354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.555029799264267</v>
+        <v>8.187745197220586</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.050830190487636</v>
+        <v>3.779736254350533</v>
       </c>
       <c r="E6">
-        <v>12.28603294685541</v>
+        <v>6.22065375483904</v>
       </c>
       <c r="F6">
-        <v>30.97664021176062</v>
+        <v>46.22932865259477</v>
       </c>
       <c r="G6">
-        <v>2.013966599911209</v>
+        <v>2.193520112572739</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>30.71486874243586</v>
       </c>
       <c r="J6">
-        <v>6.658922416100369</v>
+        <v>6.326939428191189</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.77836173856541</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.168586373479325</v>
       </c>
       <c r="M6">
-        <v>60.29126458476198</v>
+        <v>9.770881151995845</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.20947226777307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.663535500493032</v>
+        <v>8.289684925220135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.246238652924639</v>
+        <v>3.818341692367835</v>
       </c>
       <c r="E7">
-        <v>12.53777101818208</v>
+        <v>6.274159488847167</v>
       </c>
       <c r="F7">
-        <v>31.6331065377202</v>
+        <v>46.58654541128914</v>
       </c>
       <c r="G7">
-        <v>2.005656752903638</v>
+        <v>2.190481160396122</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>30.84554131240094</v>
       </c>
       <c r="J7">
-        <v>6.842899532307713</v>
+        <v>6.3363437298833</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.99815984938754</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.216419935256059</v>
       </c>
       <c r="M7">
-        <v>61.86547317225708</v>
+        <v>9.815287954616391</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.79109756662808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.132364583704227</v>
+        <v>8.739977544951529</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.088659707138754</v>
+        <v>3.989160638561861</v>
       </c>
       <c r="E8">
-        <v>13.6324712028365</v>
+        <v>6.507020460963357</v>
       </c>
       <c r="F8">
-        <v>35.2884696166286</v>
+        <v>48.18481306454535</v>
       </c>
       <c r="G8">
-        <v>1.968306942523127</v>
+        <v>2.177429953885819</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>31.44008555265916</v>
       </c>
       <c r="J8">
-        <v>7.63730847786424</v>
+        <v>6.377671662945772</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.95182600213496</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.43663321507548</v>
       </c>
       <c r="M8">
-        <v>68.70408125953081</v>
+        <v>10.02336469636383</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>30.24244143606361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.013118138167743</v>
+        <v>9.615924961580632</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.71036435304364</v>
+        <v>4.325467657143764</v>
       </c>
       <c r="E9">
-        <v>16.03984864097928</v>
+        <v>6.953047534500644</v>
       </c>
       <c r="F9">
-        <v>44.83617416585023</v>
+        <v>51.38715092173766</v>
       </c>
       <c r="G9">
-        <v>1.888741954915677</v>
+        <v>2.152982447050252</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.67186459792386</v>
       </c>
       <c r="J9">
-        <v>9.183147970059503</v>
+        <v>6.458923266948759</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.78191637651655</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.900391883405534</v>
       </c>
       <c r="M9">
-        <v>81.74342330829862</v>
+        <v>10.4741983258216</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>38.3942593464277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.711670707548352</v>
+        <v>10.24903122283102</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.95646484628447</v>
+        <v>4.573570320633894</v>
       </c>
       <c r="E10">
-        <v>17.91741837932526</v>
+        <v>7.275812349200087</v>
       </c>
       <c r="F10">
-        <v>53.64071197764854</v>
+        <v>53.77453556288866</v>
       </c>
       <c r="G10">
-        <v>1.81978955297559</v>
+        <v>2.135566710288093</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>33.61893431355806</v>
       </c>
       <c r="J10">
-        <v>10.39646565589816</v>
+        <v>6.519635551724481</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.34443740192842</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.259993090147047</v>
       </c>
       <c r="M10">
-        <v>91.50251957595033</v>
+        <v>10.8309040240399</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>45.60552475893375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.052516835245187</v>
+        <v>10.53385651477967</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12.57074845301004</v>
+        <v>4.686832017584607</v>
       </c>
       <c r="E11">
-        <v>18.81980498735495</v>
+        <v>7.422049602122501</v>
       </c>
       <c r="F11">
-        <v>58.43883371070079</v>
+        <v>54.8674389844907</v>
       </c>
       <c r="G11">
-        <v>1.782969423707392</v>
+        <v>2.127724218797082</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>34.05950214329436</v>
       </c>
       <c r="J11">
-        <v>11.00502979110065</v>
+        <v>6.547704219143815</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.02725690358562</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.427648428806117</v>
       </c>
       <c r="M11">
-        <v>96.22101264347206</v>
+        <v>10.99863103963952</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>49.46922105664006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.180929720246638</v>
+        <v>10.64120354747897</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.81682622501116</v>
+        <v>4.729802213777562</v>
       </c>
       <c r="E12">
-        <v>19.17623619945915</v>
+        <v>7.477390899934553</v>
       </c>
       <c r="F12">
-        <v>60.44664193022895</v>
+        <v>55.28228100397452</v>
       </c>
       <c r="G12">
-        <v>1.76765469972138</v>
+        <v>2.124762413059192</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>34.22779657551929</v>
       </c>
       <c r="J12">
-        <v>11.25087395453484</v>
+        <v>6.558419707714767</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.28196973741393</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.491725300433465</v>
       </c>
       <c r="M12">
-        <v>98.09154260014108</v>
+        <v>11.06292848296852</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>51.07613832848411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.15328547701805</v>
+        <v>10.6181077770476</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.76305077466941</v>
+        <v>4.720543776427624</v>
       </c>
       <c r="E13">
-        <v>19.09861148489746</v>
+        <v>7.465472852940618</v>
       </c>
       <c r="F13">
-        <v>60.00365594385346</v>
+        <v>55.19289311370947</v>
       </c>
       <c r="G13">
-        <v>1.771029805142142</v>
+        <v>2.12539999667066</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>34.19148525396706</v>
       </c>
       <c r="J13">
-        <v>11.19704889933487</v>
+        <v>6.556107712539973</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.22728140329366</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.477898831635194</v>
       </c>
       <c r="M13">
-        <v>97.68380375768176</v>
+        <v>11.04904602774473</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>50.72204422735675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.063088621447285</v>
+        <v>10.54269848090255</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>12.59066231639253</v>
+        <v>4.690365426631592</v>
       </c>
       <c r="E14">
-        <v>18.84876323543097</v>
+        <v>7.426602959603463</v>
       </c>
       <c r="F14">
-        <v>58.59948159252997</v>
+        <v>54.90154841469504</v>
       </c>
       <c r="G14">
-        <v>1.781742362751984</v>
+        <v>2.127480411045304</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>34.07331814691253</v>
       </c>
       <c r="J14">
-        <v>11.02488084600734</v>
+        <v>6.548583920919536</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.04828853737359</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.432908206044859</v>
       </c>
       <c r="M14">
-        <v>96.37282639457943</v>
+        <v>11.00390512963598</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>49.59798750332821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.007784530186703</v>
+        <v>10.49644042029808</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>12.48712500910493</v>
+        <v>4.671891622751739</v>
       </c>
       <c r="E15">
-        <v>18.69798955671242</v>
+        <v>7.402791024537549</v>
       </c>
       <c r="F15">
-        <v>57.76774605445774</v>
+        <v>54.7232202049431</v>
       </c>
       <c r="G15">
-        <v>1.788098822746577</v>
+        <v>2.12875565208552</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.00112969451244</v>
       </c>
       <c r="J15">
-        <v>10.92175460063738</v>
+        <v>6.543987337814437</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.93815335076803</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.405427169622175</v>
       </c>
       <c r="M15">
-        <v>95.5826845458333</v>
+        <v>10.97635701798645</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>48.93092990236595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.689255248944432</v>
+        <v>10.2303483005785</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.91772065166557</v>
+        <v>4.566178212258217</v>
       </c>
       <c r="E16">
-        <v>17.85994459719415</v>
+        <v>7.266247519788811</v>
       </c>
       <c r="F16">
-        <v>53.34825317543327</v>
+        <v>53.70324838040433</v>
       </c>
       <c r="G16">
-        <v>1.822046503356044</v>
+        <v>2.13608055262789</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>33.59034298623781</v>
       </c>
       <c r="J16">
-        <v>10.35832483226746</v>
+        <v>6.517812056373446</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.29926440274348</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.24911850132138</v>
       </c>
       <c r="M16">
-        <v>91.20272413341233</v>
+        <v>10.82005220439425</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>45.36878661030325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.491807040016489</v>
+        <v>10.06625169477662</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.58378068271202</v>
+        <v>4.501442429111365</v>
       </c>
       <c r="E17">
-        <v>17.36203227818506</v>
+        <v>7.182363433876432</v>
       </c>
       <c r="F17">
-        <v>50.87728180839974</v>
+        <v>53.07926833801562</v>
       </c>
       <c r="G17">
-        <v>1.841189060794689</v>
+        <v>2.14059224301955</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>33.34087173503634</v>
       </c>
       <c r="J17">
-        <v>10.03074256669134</v>
+        <v>6.501884334601554</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.90027378579144</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.154271281999106</v>
       </c>
       <c r="M17">
-        <v>88.60867252042614</v>
+        <v>10.72555919984761</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>43.36197906673732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.377305285888678</v>
+        <v>9.971570536445855</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.39561128387</v>
+        <v>4.464243769225503</v>
       </c>
       <c r="E18">
-        <v>17.07953820966599</v>
+        <v>7.134056485992896</v>
       </c>
       <c r="F18">
-        <v>49.52416619111197</v>
+        <v>52.72101537197074</v>
       </c>
       <c r="G18">
-        <v>1.851735513948785</v>
+        <v>2.143195012235351</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>33.19829492349679</v>
       </c>
       <c r="J18">
-        <v>9.847046375617218</v>
+        <v>6.492764066256981</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.66814031713081</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.100100170226529</v>
       </c>
       <c r="M18">
-        <v>87.13924802172097</v>
+        <v>10.67172304475367</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>42.25754756213241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.338362657368</v>
+        <v>9.939464017151586</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.33244612074673</v>
+        <v>4.451654493540399</v>
       </c>
       <c r="E19">
-        <v>16.98440973220939</v>
+        <v>7.117689097261673</v>
       </c>
       <c r="F19">
-        <v>49.07628830287838</v>
+        <v>52.59982866260131</v>
       </c>
       <c r="G19">
-        <v>1.855237799367977</v>
+        <v>2.144077700049703</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.15017598870269</v>
       </c>
       <c r="J19">
-        <v>9.785522409940242</v>
+        <v>6.489682512431942</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.58908490287916</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.08182446221636</v>
       </c>
       <c r="M19">
-        <v>86.64477541400085</v>
+        <v>10.65358344518971</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>41.89104039250925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.512919025485507</v>
+        <v>10.08375125512948</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.61889344282158</v>
+        <v>4.508329832714592</v>
       </c>
       <c r="E20">
-        <v>17.41459531160004</v>
+        <v>7.191298822197519</v>
       </c>
       <c r="F20">
-        <v>51.13290560035794</v>
+        <v>53.14562564695087</v>
       </c>
       <c r="G20">
-        <v>1.839202124352147</v>
+        <v>2.140111186653549</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>33.36733355241785</v>
       </c>
       <c r="J20">
-        <v>10.06509066537209</v>
+        <v>6.503575482287893</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.94301957381194</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.164328339271377</v>
       </c>
       <c r="M20">
-        <v>88.88226316426935</v>
+        <v>10.73556500889493</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>43.57016430959408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.089591122629846</v>
+        <v>10.56486219396139</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.64084631096056</v>
+        <v>4.69922712989435</v>
       </c>
       <c r="E21">
-        <v>18.92165203342747</v>
+        <v>7.438020513302472</v>
       </c>
       <c r="F21">
-        <v>59.00575279194449</v>
+        <v>54.98709649749335</v>
       </c>
       <c r="G21">
-        <v>1.77864056739164</v>
+        <v>2.126869156559814</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>34.1079864828066</v>
       </c>
       <c r="J21">
-        <v>11.07494089077487</v>
+        <v>6.550791306377522</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.1009663061491</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.446106973275263</v>
       </c>
       <c r="M21">
-        <v>96.75506618549309</v>
+        <v>11.01714284550851</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>49.92347701138543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.46357030634524</v>
+        <v>10.87631129577893</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>13.39719459583393</v>
+        <v>4.824475430409935</v>
       </c>
       <c r="E22">
-        <v>20.00365314883991</v>
+        <v>7.599090240333897</v>
       </c>
       <c r="F22">
-        <v>65.37908944183386</v>
+        <v>56.19637325135154</v>
       </c>
       <c r="G22">
-        <v>1.730190789429007</v>
+        <v>2.118259277955496</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>34.60060145289834</v>
       </c>
       <c r="J22">
-        <v>11.83528385688785</v>
+        <v>6.582165911306202</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.83536695174353</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.633709363374091</v>
       </c>
       <c r="M22">
-        <v>102.4522771349241</v>
+        <v>11.20573718249586</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>55.00384110371348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.263807164201493</v>
+        <v>10.71037083068364</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.98093193477586</v>
+        <v>4.757573711650827</v>
       </c>
       <c r="E23">
-        <v>19.41216237035218</v>
+        <v>7.513121588623325</v>
       </c>
       <c r="F23">
-        <v>61.81314865405428</v>
+        <v>55.55041864692972</v>
       </c>
       <c r="G23">
-        <v>1.757255455427156</v>
+        <v>2.12285172811778</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>34.33687659659621</v>
       </c>
       <c r="J23">
-        <v>11.41547672796721</v>
+        <v>6.565365516655818</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.44539132656605</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.533263778668244</v>
       </c>
       <c r="M23">
-        <v>99.33213458076808</v>
+        <v>11.10466197875212</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>52.16694980411748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.503377410527843</v>
+        <v>10.0758407581408</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.60300746848721</v>
+        <v>4.505215980613485</v>
       </c>
       <c r="E24">
-        <v>17.39082031218797</v>
+        <v>7.187259388618093</v>
       </c>
       <c r="F24">
-        <v>51.01713245731031</v>
+        <v>53.11562400680667</v>
       </c>
       <c r="G24">
-        <v>1.840101812585774</v>
+        <v>2.14032864413431</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>33.35536752923906</v>
       </c>
       <c r="J24">
-        <v>10.04954788623072</v>
+        <v>6.502810801427927</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.9237027762531</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.159780429343746</v>
       </c>
       <c r="M24">
-        <v>88.75850713733381</v>
+        <v>10.7310398588242</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>43.47589373268691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.778980197450737</v>
+        <v>9.380418327479561</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.26941074298115</v>
+        <v>4.234344591426392</v>
       </c>
       <c r="E25">
-        <v>15.362257010961</v>
+        <v>6.833386005531857</v>
       </c>
       <c r="F25">
-        <v>42.0203624746587</v>
+        <v>50.51437275266996</v>
       </c>
       <c r="G25">
-        <v>1.91144728768332</v>
+        <v>2.159488377226257</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>32.33140775116205</v>
       </c>
       <c r="J25">
-        <v>8.759729102410764</v>
+        <v>6.436834368413556</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.27283561477284</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.77158726036971</v>
       </c>
       <c r="M25">
-        <v>78.23538916405442</v>
+        <v>10.34772227854602</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>36.03903632939389</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.861774493160103</v>
+        <v>14.00156945261478</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.035538321361962</v>
+        <v>3.411382621167844</v>
       </c>
       <c r="E2">
-        <v>6.569352109262738</v>
+        <v>8.985785499056439</v>
       </c>
       <c r="F2">
-        <v>48.62279850477031</v>
+        <v>57.97724184698689</v>
       </c>
       <c r="G2">
-        <v>2.173976460215166</v>
+        <v>3.804184768701249</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.60557637403022</v>
+        <v>39.59812849506417</v>
       </c>
       <c r="J2">
-        <v>6.388853816830776</v>
+        <v>9.497483456414422</v>
       </c>
       <c r="K2">
-        <v>14.2057811960243</v>
+        <v>17.23823850884696</v>
       </c>
       <c r="L2">
-        <v>8.49848773650678</v>
+        <v>13.33790825060601</v>
       </c>
       <c r="M2">
-        <v>10.08266383894751</v>
+        <v>17.275477066505</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.508180057239324</v>
+        <v>14.00841760818214</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.901132966687654</v>
+        <v>3.35810767224216</v>
       </c>
       <c r="E3">
-        <v>6.387735144786843</v>
+        <v>8.938955472372626</v>
       </c>
       <c r="F3">
-        <v>47.35792695688865</v>
+        <v>57.75394045640792</v>
       </c>
       <c r="G3">
-        <v>2.184083216431123</v>
+        <v>3.807766946923716</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.13056778005496</v>
+        <v>39.51318809476727</v>
       </c>
       <c r="J3">
-        <v>6.356416256238232</v>
+        <v>9.486174597047603</v>
       </c>
       <c r="K3">
-        <v>13.46409917528001</v>
+        <v>17.15940188278502</v>
       </c>
       <c r="L3">
-        <v>8.321536257982599</v>
+        <v>13.34742435539122</v>
       </c>
       <c r="M3">
-        <v>9.913947755750959</v>
+        <v>17.30406441821459</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.290878462228788</v>
+        <v>14.01634070560273</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.818793704390317</v>
+        <v>3.32522786256811</v>
       </c>
       <c r="E4">
-        <v>6.274783758886561</v>
+        <v>8.909455892169236</v>
       </c>
       <c r="F4">
-        <v>46.5907378577654</v>
+        <v>57.62428570162286</v>
       </c>
       <c r="G4">
-        <v>2.190445803733474</v>
+        <v>3.810081304246659</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>30.84708007598622</v>
+        <v>39.4643115185903</v>
       </c>
       <c r="J4">
-        <v>6.336453642664786</v>
+        <v>9.478962381337086</v>
       </c>
       <c r="K4">
-        <v>13.00072361282207</v>
+        <v>17.11597361532462</v>
       </c>
       <c r="L4">
-        <v>8.216984687222533</v>
+        <v>13.35568441268197</v>
       </c>
       <c r="M4">
-        <v>9.815814230209552</v>
+        <v>17.32473920448031</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.202422831503231</v>
+        <v>14.02050562493183</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.785295036147243</v>
+        <v>3.311797928676363</v>
       </c>
       <c r="E5">
-        <v>6.228381627555645</v>
+        <v>8.897247874322593</v>
       </c>
       <c r="F5">
-        <v>46.28065743954771</v>
+        <v>57.57334830261632</v>
       </c>
       <c r="G5">
-        <v>2.193080121911327</v>
+        <v>3.811053418081809</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>30.73359117075721</v>
+        <v>39.44522298514869</v>
       </c>
       <c r="J5">
-        <v>6.328295745485035</v>
+        <v>9.475955493300429</v>
       </c>
       <c r="K5">
-        <v>12.8101126661178</v>
+        <v>17.09954301640233</v>
       </c>
       <c r="L5">
-        <v>8.175423974631334</v>
+        <v>13.35965828275586</v>
       </c>
       <c r="M5">
-        <v>9.777207846220138</v>
+        <v>17.33394951994304</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.187745197220586</v>
+        <v>14.02125377533464</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.779736254350533</v>
+        <v>3.309566348654529</v>
       </c>
       <c r="E6">
-        <v>6.22065375483904</v>
+        <v>8.895209490036162</v>
       </c>
       <c r="F6">
-        <v>46.22932865259477</v>
+        <v>57.56500547259665</v>
       </c>
       <c r="G6">
-        <v>2.193520112572739</v>
+        <v>3.811216591138206</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.71486874243586</v>
+        <v>39.44210355756469</v>
       </c>
       <c r="J6">
-        <v>6.326939428191189</v>
+        <v>9.475452094176996</v>
       </c>
       <c r="K6">
-        <v>12.77836173856541</v>
+        <v>17.09689164096553</v>
       </c>
       <c r="L6">
-        <v>8.168586373479325</v>
+        <v>13.36035484934633</v>
       </c>
       <c r="M6">
-        <v>9.770881151995845</v>
+        <v>17.33552630889949</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.289684925220135</v>
+        <v>14.0163930833698</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.818341692367835</v>
+        <v>3.325046852924037</v>
       </c>
       <c r="E7">
-        <v>6.274159488847167</v>
+        <v>8.909292005388677</v>
       </c>
       <c r="F7">
-        <v>46.58654541128914</v>
+        <v>57.62359102757863</v>
       </c>
       <c r="G7">
-        <v>2.190481160396122</v>
+        <v>3.810094296977782</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>30.84554131240094</v>
+        <v>39.46405072100477</v>
       </c>
       <c r="J7">
-        <v>6.3363437298833</v>
+        <v>9.478922104541764</v>
       </c>
       <c r="K7">
-        <v>12.99815984938754</v>
+        <v>17.11574687895408</v>
       </c>
       <c r="L7">
-        <v>8.216419935256059</v>
+        <v>13.35573554473451</v>
       </c>
       <c r="M7">
-        <v>9.815287954616391</v>
+        <v>17.32486023886053</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.739977544951529</v>
+        <v>14.0031598294818</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.989160638561861</v>
+        <v>3.393055196541868</v>
       </c>
       <c r="E8">
-        <v>6.507020460963357</v>
+        <v>8.969793778120431</v>
       </c>
       <c r="F8">
-        <v>48.18481306454535</v>
+        <v>57.89871549553014</v>
       </c>
       <c r="G8">
-        <v>2.177429953885819</v>
+        <v>3.805396122944154</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.44008555265916</v>
+        <v>39.56816400801337</v>
       </c>
       <c r="J8">
-        <v>6.377671662945772</v>
+        <v>9.493639696845824</v>
       </c>
       <c r="K8">
-        <v>13.95182600213496</v>
+        <v>17.21003213398713</v>
       </c>
       <c r="L8">
-        <v>8.43663321507548</v>
+        <v>13.34068779172387</v>
       </c>
       <c r="M8">
-        <v>10.02336469636383</v>
+        <v>17.28468610951217</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.615924961580632</v>
+        <v>14.00663884332556</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.325467657143764</v>
+        <v>3.537067579575966</v>
       </c>
       <c r="E9">
-        <v>6.953047534500644</v>
+        <v>9.082486924485115</v>
       </c>
       <c r="F9">
-        <v>51.38715092173766</v>
+        <v>58.49624373529269</v>
       </c>
       <c r="G9">
-        <v>2.152982447050252</v>
+        <v>3.797089768784492</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>32.67186459792386</v>
+        <v>39.79809830220122</v>
       </c>
       <c r="J9">
-        <v>6.458923266948759</v>
+        <v>9.520385418572719</v>
       </c>
       <c r="K9">
-        <v>15.78191637651655</v>
+        <v>17.43367000419589</v>
       </c>
       <c r="L9">
-        <v>8.900391883405534</v>
+        <v>13.33035134665167</v>
       </c>
       <c r="M9">
-        <v>10.4741983258216</v>
+        <v>17.23066820266022</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.24903122283102</v>
+        <v>14.02700560832056</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.573570320633894</v>
+        <v>3.669201935085049</v>
       </c>
       <c r="E10">
-        <v>7.275812349200087</v>
+        <v>9.161614582433234</v>
       </c>
       <c r="F10">
-        <v>53.77453556288866</v>
+        <v>58.96898703541361</v>
       </c>
       <c r="G10">
-        <v>2.135566710288093</v>
+        <v>3.791533136617857</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.61893431355806</v>
+        <v>39.98240463735124</v>
       </c>
       <c r="J10">
-        <v>6.519635551724481</v>
+        <v>9.538767631434498</v>
       </c>
       <c r="K10">
-        <v>17.34443740192842</v>
+        <v>17.62046863615712</v>
       </c>
       <c r="L10">
-        <v>9.259993090147047</v>
+        <v>13.33442746642768</v>
       </c>
       <c r="M10">
-        <v>10.8309040240399</v>
+        <v>17.20606061896505</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.53385651477967</v>
+        <v>14.0400995364168</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.686832017584607</v>
+        <v>3.727582316256226</v>
       </c>
       <c r="E11">
-        <v>7.422049602122501</v>
+        <v>9.196806897870131</v>
       </c>
       <c r="F11">
-        <v>54.8674389844907</v>
+        <v>59.19099149439172</v>
       </c>
       <c r="G11">
-        <v>2.127724218797082</v>
+        <v>3.789122413032257</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.05950214329436</v>
+        <v>40.06950654388118</v>
       </c>
       <c r="J11">
-        <v>6.547704219143815</v>
+        <v>9.546859565417707</v>
       </c>
       <c r="K11">
-        <v>18.02725690358562</v>
+        <v>17.71005755304123</v>
       </c>
       <c r="L11">
-        <v>9.427648428806117</v>
+        <v>13.33880822979986</v>
       </c>
       <c r="M11">
-        <v>10.99863103963952</v>
+        <v>17.19813380718543</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.64120354747897</v>
+        <v>14.04560428006895</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.729802213777562</v>
+        <v>3.749429080753515</v>
       </c>
       <c r="E12">
-        <v>7.477390899934553</v>
+        <v>9.210016956241097</v>
       </c>
       <c r="F12">
-        <v>55.28228100397452</v>
+        <v>59.27602275347849</v>
       </c>
       <c r="G12">
-        <v>2.124762413059192</v>
+        <v>3.788226251485608</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.22779657551929</v>
+        <v>40.10295046089338</v>
       </c>
       <c r="J12">
-        <v>6.558419707714767</v>
+        <v>9.549885268288543</v>
       </c>
       <c r="K12">
-        <v>18.28196973741393</v>
+        <v>17.74462063883683</v>
       </c>
       <c r="L12">
-        <v>9.491725300433465</v>
+        <v>13.34082937767179</v>
       </c>
       <c r="M12">
-        <v>11.06292848296852</v>
+        <v>17.19560111506263</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.6181077770476</v>
+        <v>14.04439450907713</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.720543776427624</v>
+        <v>3.744735762378939</v>
       </c>
       <c r="E13">
-        <v>7.465472852940618</v>
+        <v>9.207177131451035</v>
       </c>
       <c r="F13">
-        <v>55.19289311370947</v>
+        <v>59.25766752057375</v>
       </c>
       <c r="G13">
-        <v>2.12539999667066</v>
+        <v>3.788418513545088</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.19148525396706</v>
+        <v>40.0957273827381</v>
       </c>
       <c r="J13">
-        <v>6.556107712539973</v>
+        <v>9.549235337865193</v>
       </c>
       <c r="K13">
-        <v>18.22728140329366</v>
+        <v>17.73714891977768</v>
       </c>
       <c r="L13">
-        <v>9.477898831635194</v>
+        <v>13.34037799540276</v>
       </c>
       <c r="M13">
-        <v>11.04904602774473</v>
+        <v>17.19612573058849</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.54269848090255</v>
+        <v>14.04054149144631</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.690365426631592</v>
+        <v>3.729384951698306</v>
       </c>
       <c r="E14">
-        <v>7.426602959603463</v>
+        <v>9.197896038035054</v>
       </c>
       <c r="F14">
-        <v>54.90154841469504</v>
+        <v>59.1979679827293</v>
       </c>
       <c r="G14">
-        <v>2.127480411045304</v>
+        <v>3.789048350615084</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.07331814691253</v>
+        <v>40.07224882004214</v>
       </c>
       <c r="J14">
-        <v>6.548583920919536</v>
+        <v>9.547109262309805</v>
       </c>
       <c r="K14">
-        <v>18.04828853737359</v>
+        <v>17.71288844982997</v>
       </c>
       <c r="L14">
-        <v>9.432908206044859</v>
+        <v>13.33896725770209</v>
       </c>
       <c r="M14">
-        <v>11.00390512963598</v>
+        <v>17.19791604648713</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.49644042029808</v>
+        <v>14.03825242335951</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.671891622751739</v>
+        <v>3.71994785442909</v>
       </c>
       <c r="E15">
-        <v>7.402791024537549</v>
+        <v>9.192195897918468</v>
       </c>
       <c r="F15">
-        <v>54.7232202049431</v>
+        <v>59.16152458855978</v>
       </c>
       <c r="G15">
-        <v>2.12875565208552</v>
+        <v>3.789436319426245</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.00112969451244</v>
+        <v>40.0579272087395</v>
       </c>
       <c r="J15">
-        <v>6.543987337814437</v>
+        <v>9.545801970538417</v>
       </c>
       <c r="K15">
-        <v>17.93815335076803</v>
+        <v>17.69811047625808</v>
       </c>
       <c r="L15">
-        <v>9.405427169622175</v>
+        <v>13.33815028035344</v>
       </c>
       <c r="M15">
-        <v>10.97635701798645</v>
+        <v>17.1990737198456</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.2303483005785</v>
+        <v>14.02622658786449</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.566178212258217</v>
+        <v>3.665350806357837</v>
       </c>
       <c r="E16">
-        <v>7.266247519788811</v>
+        <v>9.159298432762924</v>
       </c>
       <c r="F16">
-        <v>53.70324838040433</v>
+        <v>58.95461530711512</v>
       </c>
       <c r="G16">
-        <v>2.13608055262789</v>
+        <v>3.791693029209505</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.59034298623781</v>
+        <v>39.97677721071386</v>
       </c>
       <c r="J16">
-        <v>6.517812056373446</v>
+        <v>9.538233394339066</v>
       </c>
       <c r="K16">
-        <v>17.29926440274348</v>
+        <v>17.6147044550865</v>
       </c>
       <c r="L16">
-        <v>9.24911850132138</v>
+        <v>13.33419192724387</v>
       </c>
       <c r="M16">
-        <v>10.82005220439425</v>
+        <v>17.20664433536225</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.06625169477662</v>
+        <v>14.01982697566237</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.501442429111365</v>
+        <v>3.631405720146651</v>
       </c>
       <c r="E17">
-        <v>7.182363433876432</v>
+        <v>9.138910458663222</v>
       </c>
       <c r="F17">
-        <v>53.07926833801562</v>
+        <v>58.82943801708736</v>
       </c>
       <c r="G17">
-        <v>2.14059224301955</v>
+        <v>3.793107347175072</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.34087173503634</v>
+        <v>39.92782342563392</v>
       </c>
       <c r="J17">
-        <v>6.501884334601554</v>
+        <v>9.533521335128963</v>
       </c>
       <c r="K17">
-        <v>16.90027378579144</v>
+        <v>17.5647012783075</v>
       </c>
       <c r="L17">
-        <v>9.154271281999106</v>
+        <v>13.33241001864457</v>
       </c>
       <c r="M17">
-        <v>10.72555919984761</v>
+        <v>17.21212496984924</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.971570536445855</v>
+        <v>14.01650677937953</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.464243769225503</v>
+        <v>3.61171939734465</v>
       </c>
       <c r="E18">
-        <v>7.134056485992896</v>
+        <v>9.127108289080073</v>
       </c>
       <c r="F18">
-        <v>52.72101537197074</v>
+        <v>58.75809592333423</v>
       </c>
       <c r="G18">
-        <v>2.143195012235351</v>
+        <v>3.793931845512458</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.19829492349679</v>
+        <v>39.89997389356783</v>
       </c>
       <c r="J18">
-        <v>6.492764066256981</v>
+        <v>9.530785629057009</v>
       </c>
       <c r="K18">
-        <v>16.66814031713081</v>
+        <v>17.5363766211589</v>
       </c>
       <c r="L18">
-        <v>9.100100170226529</v>
+        <v>13.33162299661204</v>
       </c>
       <c r="M18">
-        <v>10.67172304475367</v>
+        <v>17.21558487893893</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.939464017151586</v>
+        <v>14.01544468739161</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.451654493540399</v>
+        <v>3.605026507165222</v>
       </c>
       <c r="E19">
-        <v>7.117689097261673</v>
+        <v>9.123099332667671</v>
       </c>
       <c r="F19">
-        <v>52.59982866260131</v>
+        <v>58.73405457094887</v>
       </c>
       <c r="G19">
-        <v>2.144077700049703</v>
+        <v>3.794212902230031</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.15017598870269</v>
+        <v>39.89059756462963</v>
       </c>
       <c r="J19">
-        <v>6.489682512431942</v>
+        <v>9.529854984409925</v>
       </c>
       <c r="K19">
-        <v>16.58908490287916</v>
+        <v>17.52686199733973</v>
       </c>
       <c r="L19">
-        <v>9.08182446221636</v>
+        <v>13.33139741026177</v>
       </c>
       <c r="M19">
-        <v>10.65358344518971</v>
+        <v>17.21680919619459</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.08375125512948</v>
+        <v>14.02047092420188</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.508329832714592</v>
+        <v>3.635036090433114</v>
       </c>
       <c r="E20">
-        <v>7.191298822197519</v>
+        <v>9.141088619229762</v>
       </c>
       <c r="F20">
-        <v>53.14562564695087</v>
+        <v>58.84269566068687</v>
       </c>
       <c r="G20">
-        <v>2.140111186653549</v>
+        <v>3.792955650806741</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.36733355241785</v>
+        <v>39.93300288578762</v>
       </c>
       <c r="J20">
-        <v>6.503575482287893</v>
+        <v>9.534025573939521</v>
       </c>
       <c r="K20">
-        <v>16.94301957381194</v>
+        <v>17.56997927532188</v>
       </c>
       <c r="L20">
-        <v>9.164328339271377</v>
+        <v>13.33257509278098</v>
       </c>
       <c r="M20">
-        <v>10.73556500889493</v>
+        <v>17.21150971768565</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.56486219396139</v>
+        <v>14.04165842469835</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.69922712989435</v>
+        <v>3.733901021552629</v>
       </c>
       <c r="E21">
-        <v>7.438020513302472</v>
+        <v>9.200625290103487</v>
       </c>
       <c r="F21">
-        <v>54.98709649749335</v>
+        <v>59.21547734831929</v>
       </c>
       <c r="G21">
-        <v>2.126869156559814</v>
+        <v>3.788862899021773</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.1079864828066</v>
+        <v>40.07913262030557</v>
       </c>
       <c r="J21">
-        <v>6.550791306377522</v>
+        <v>9.547734785557598</v>
       </c>
       <c r="K21">
-        <v>18.1009663061491</v>
+        <v>17.71999724157624</v>
       </c>
       <c r="L21">
-        <v>9.446106973275263</v>
+        <v>13.33937180377148</v>
       </c>
       <c r="M21">
-        <v>11.01714284550851</v>
+        <v>17.19737746556788</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.87631129577893</v>
+        <v>14.05868791454361</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.824475430409935</v>
+        <v>3.796990966682222</v>
       </c>
       <c r="E22">
-        <v>7.599090240333897</v>
+        <v>9.23885638772005</v>
       </c>
       <c r="F22">
-        <v>56.19637325135154</v>
+        <v>59.46470670105243</v>
       </c>
       <c r="G22">
-        <v>2.118259277955496</v>
+        <v>3.786285501921789</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.60060145289834</v>
+        <v>40.17731562604527</v>
       </c>
       <c r="J22">
-        <v>6.582165911306202</v>
+        <v>9.556470074346427</v>
       </c>
       <c r="K22">
-        <v>18.83536695174353</v>
+        <v>17.82174694207523</v>
       </c>
       <c r="L22">
-        <v>9.633709363374091</v>
+        <v>13.3459246628186</v>
       </c>
       <c r="M22">
-        <v>11.20573718249586</v>
+        <v>17.19087453091263</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.71037083068364</v>
+        <v>14.04930932463769</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.757573711650827</v>
+        <v>3.763461864570935</v>
       </c>
       <c r="E23">
-        <v>7.513121588623325</v>
+        <v>9.218514241136555</v>
       </c>
       <c r="F23">
-        <v>55.55041864692972</v>
+        <v>59.33118885494756</v>
       </c>
       <c r="G23">
-        <v>2.12285172811778</v>
+        <v>3.787652223110474</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.33687659659621</v>
+        <v>40.12467133241494</v>
       </c>
       <c r="J23">
-        <v>6.565365516655818</v>
+        <v>9.551828319501137</v>
       </c>
       <c r="K23">
-        <v>18.44539132656605</v>
+        <v>17.76711106768512</v>
       </c>
       <c r="L23">
-        <v>9.533263778668244</v>
+        <v>13.34223454442107</v>
       </c>
       <c r="M23">
-        <v>11.10466197875212</v>
+        <v>17.19409548352227</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.0758407581408</v>
+        <v>14.02017867643161</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.505215980613485</v>
+        <v>3.633395331264774</v>
       </c>
       <c r="E24">
-        <v>7.187259388618093</v>
+        <v>9.140104124634634</v>
       </c>
       <c r="F24">
-        <v>53.11562400680667</v>
+        <v>58.83669993348403</v>
       </c>
       <c r="G24">
-        <v>2.14032864413431</v>
+        <v>3.793024197254227</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.35536752923906</v>
+        <v>39.93066033335114</v>
       </c>
       <c r="J24">
-        <v>6.502810801427927</v>
+        <v>9.533797690714939</v>
       </c>
       <c r="K24">
-        <v>16.9237027762531</v>
+        <v>17.56759177385003</v>
       </c>
       <c r="L24">
-        <v>9.159780429343746</v>
+        <v>13.33249972314198</v>
       </c>
       <c r="M24">
-        <v>10.7310398588242</v>
+        <v>17.2117869105662</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.380418327479561</v>
+        <v>14.00255835681988</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.234344591426392</v>
+        <v>3.489269735744431</v>
       </c>
       <c r="E25">
-        <v>6.833386005531857</v>
+        <v>9.052641630786223</v>
       </c>
       <c r="F25">
-        <v>50.51437275266996</v>
+        <v>58.32854612258576</v>
       </c>
       <c r="G25">
-        <v>2.159488377226257</v>
+        <v>3.799240481752322</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.33140775116205</v>
+        <v>39.73316872403299</v>
       </c>
       <c r="J25">
-        <v>6.436834368413556</v>
+        <v>9.5133742138741</v>
       </c>
       <c r="K25">
-        <v>15.27283561477284</v>
+        <v>17.36913186187015</v>
       </c>
       <c r="L25">
-        <v>8.77158726036971</v>
+        <v>13.33109613759463</v>
       </c>
       <c r="M25">
-        <v>10.34772227854602</v>
+        <v>17.24263154806314</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.00156945261478</v>
+        <v>8.861774493160148</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.411382621167844</v>
+        <v>4.035538321362016</v>
       </c>
       <c r="E2">
-        <v>8.985785499056439</v>
+        <v>6.569352109262925</v>
       </c>
       <c r="F2">
-        <v>57.97724184698689</v>
+        <v>48.62279850477046</v>
       </c>
       <c r="G2">
-        <v>3.804184768701249</v>
+        <v>2.173976460215295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>39.59812849506417</v>
+        <v>31.6055763740304</v>
       </c>
       <c r="J2">
-        <v>9.497483456414422</v>
+        <v>6.388853816830947</v>
       </c>
       <c r="K2">
-        <v>17.23823850884696</v>
+        <v>14.20578119602426</v>
       </c>
       <c r="L2">
-        <v>13.33790825060601</v>
+        <v>8.49848773650675</v>
       </c>
       <c r="M2">
-        <v>17.275477066505</v>
+        <v>10.0826638389475</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.00841760818214</v>
+        <v>8.508180057239272</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.35810767224216</v>
+        <v>3.901132966687681</v>
       </c>
       <c r="E3">
-        <v>8.938955472372626</v>
+        <v>6.387735144786848</v>
       </c>
       <c r="F3">
-        <v>57.75394045640792</v>
+        <v>47.35792695688855</v>
       </c>
       <c r="G3">
-        <v>3.807766946923716</v>
+        <v>2.18408321643099</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>39.51318809476727</v>
+        <v>31.13056778005489</v>
       </c>
       <c r="J3">
-        <v>9.486174597047603</v>
+        <v>6.35641625623823</v>
       </c>
       <c r="K3">
-        <v>17.15940188278502</v>
+        <v>13.46409917527999</v>
       </c>
       <c r="L3">
-        <v>13.34742435539122</v>
+        <v>8.321536257982579</v>
       </c>
       <c r="M3">
-        <v>17.30406441821459</v>
+        <v>9.913947755750911</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.01634070560273</v>
+        <v>8.290878462228761</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.32522786256811</v>
+        <v>3.818793704390633</v>
       </c>
       <c r="E4">
-        <v>8.909455892169236</v>
+        <v>6.274783758886306</v>
       </c>
       <c r="F4">
-        <v>57.62428570162286</v>
+        <v>46.59073785776501</v>
       </c>
       <c r="G4">
-        <v>3.810081304246659</v>
+        <v>2.190445803733073</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>39.4643115185903</v>
+        <v>30.84708007598615</v>
       </c>
       <c r="J4">
-        <v>9.478962381337086</v>
+        <v>6.336453642664885</v>
       </c>
       <c r="K4">
-        <v>17.11597361532462</v>
+        <v>13.000723612822</v>
       </c>
       <c r="L4">
-        <v>13.35568441268197</v>
+        <v>8.216984687222331</v>
       </c>
       <c r="M4">
-        <v>17.32473920448031</v>
+        <v>9.815814230209391</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.02050562493183</v>
+        <v>8.202422831503165</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.311797928676363</v>
+        <v>3.785295036147234</v>
       </c>
       <c r="E5">
-        <v>8.897247874322593</v>
+        <v>6.228381627555648</v>
       </c>
       <c r="F5">
-        <v>57.57334830261632</v>
+        <v>46.28065743954774</v>
       </c>
       <c r="G5">
-        <v>3.811053418081809</v>
+        <v>2.193080121911327</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>39.44522298514869</v>
+        <v>30.7335911707572</v>
       </c>
       <c r="J5">
-        <v>9.475955493300429</v>
+        <v>6.32829574548507</v>
       </c>
       <c r="K5">
-        <v>17.09954301640233</v>
+        <v>12.81011266611777</v>
       </c>
       <c r="L5">
-        <v>13.35965828275586</v>
+        <v>8.17542397463134</v>
       </c>
       <c r="M5">
-        <v>17.33394951994304</v>
+        <v>9.77720784622011</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.02125377533464</v>
+        <v>8.187745197220458</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.309566348654529</v>
+        <v>3.779736254350532</v>
       </c>
       <c r="E6">
-        <v>8.895209490036162</v>
+        <v>6.220653754838908</v>
       </c>
       <c r="F6">
-        <v>57.56500547259665</v>
+        <v>46.22932865259498</v>
       </c>
       <c r="G6">
-        <v>3.811216591138206</v>
+        <v>2.193520112572739</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>39.44210355756469</v>
+        <v>30.71486874243587</v>
       </c>
       <c r="J6">
-        <v>9.475452094176996</v>
+        <v>6.326939428191157</v>
       </c>
       <c r="K6">
-        <v>17.09689164096553</v>
+        <v>12.77836173856543</v>
       </c>
       <c r="L6">
-        <v>13.36035484934633</v>
+        <v>8.16858637347943</v>
       </c>
       <c r="M6">
-        <v>17.33552630889949</v>
+        <v>9.770881151995855</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.0163930833698</v>
+        <v>8.289684925220159</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.325046852924037</v>
+        <v>3.818341692367798</v>
       </c>
       <c r="E7">
-        <v>8.909292005388677</v>
+        <v>6.274159488847165</v>
       </c>
       <c r="F7">
-        <v>57.62359102757863</v>
+        <v>46.58654541128926</v>
       </c>
       <c r="G7">
-        <v>3.810094296977782</v>
+        <v>2.190481160396389</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>39.46405072100477</v>
+        <v>30.845541312401</v>
       </c>
       <c r="J7">
-        <v>9.478922104541764</v>
+        <v>6.336343729883264</v>
       </c>
       <c r="K7">
-        <v>17.11574687895408</v>
+        <v>12.99815984938755</v>
       </c>
       <c r="L7">
-        <v>13.35573554473451</v>
+        <v>8.216419935256065</v>
       </c>
       <c r="M7">
-        <v>17.32486023886053</v>
+        <v>9.815287954616418</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.0031598294818</v>
+        <v>8.739977544951536</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.393055196541868</v>
+        <v>3.989160638561928</v>
       </c>
       <c r="E8">
-        <v>8.969793778120431</v>
+        <v>6.507020460963156</v>
       </c>
       <c r="F8">
-        <v>57.89871549553014</v>
+        <v>48.1848130645453</v>
       </c>
       <c r="G8">
-        <v>3.805396122944154</v>
+        <v>2.17742995388596</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>39.56816400801337</v>
+        <v>31.44008555265913</v>
       </c>
       <c r="J8">
-        <v>9.493639696845824</v>
+        <v>6.377671662945772</v>
       </c>
       <c r="K8">
-        <v>17.21003213398713</v>
+        <v>13.95182600213495</v>
       </c>
       <c r="L8">
-        <v>13.34068779172387</v>
+        <v>8.436633215075441</v>
       </c>
       <c r="M8">
-        <v>17.28468610951217</v>
+        <v>10.02336469636375</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.00663884332556</v>
+        <v>9.615924961580575</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.537067579575966</v>
+        <v>4.325467657143898</v>
       </c>
       <c r="E9">
-        <v>9.082486924485115</v>
+        <v>6.953047534500654</v>
       </c>
       <c r="F9">
-        <v>58.49624373529269</v>
+        <v>51.38715092173742</v>
       </c>
       <c r="G9">
-        <v>3.797089768784492</v>
+        <v>2.15298244705051</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.79809830220122</v>
+        <v>32.67186459792381</v>
       </c>
       <c r="J9">
-        <v>9.520385418572719</v>
+        <v>6.458923266948857</v>
       </c>
       <c r="K9">
-        <v>17.43367000419589</v>
+        <v>15.78191637651666</v>
       </c>
       <c r="L9">
-        <v>13.33035134665167</v>
+        <v>8.900391883405428</v>
       </c>
       <c r="M9">
-        <v>17.23066820266022</v>
+        <v>10.4741983258215</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.02700560832056</v>
+        <v>10.24903122283098</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.669201935085049</v>
+        <v>4.57357032063387</v>
       </c>
       <c r="E10">
-        <v>9.161614582433234</v>
+        <v>7.275812349200146</v>
       </c>
       <c r="F10">
-        <v>58.96898703541361</v>
+        <v>53.77453556288859</v>
       </c>
       <c r="G10">
-        <v>3.791533136617857</v>
+        <v>2.135566710288357</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.98240463735124</v>
+        <v>33.61893431355798</v>
       </c>
       <c r="J10">
-        <v>9.538767631434498</v>
+        <v>6.519635551724516</v>
       </c>
       <c r="K10">
-        <v>17.62046863615712</v>
+        <v>17.34443740192851</v>
       </c>
       <c r="L10">
-        <v>13.33442746642768</v>
+        <v>9.259993090147042</v>
       </c>
       <c r="M10">
-        <v>17.20606061896505</v>
+        <v>10.83090402403986</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.0400995364168</v>
+        <v>10.53385651477966</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.727582316256226</v>
+        <v>4.686832017584655</v>
       </c>
       <c r="E11">
-        <v>9.196806897870131</v>
+        <v>7.422049602122442</v>
       </c>
       <c r="F11">
-        <v>59.19099149439172</v>
+        <v>54.86743898449075</v>
       </c>
       <c r="G11">
-        <v>3.789122413032257</v>
+        <v>2.127724218797074</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>40.06950654388118</v>
+        <v>34.05950214329442</v>
       </c>
       <c r="J11">
-        <v>9.546859565417707</v>
+        <v>6.547704219143813</v>
       </c>
       <c r="K11">
-        <v>17.71005755304123</v>
+        <v>18.02725690358567</v>
       </c>
       <c r="L11">
-        <v>13.33880822979986</v>
+        <v>9.427648428806075</v>
       </c>
       <c r="M11">
-        <v>17.19813380718543</v>
+        <v>10.99863103963947</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.04560428006895</v>
+        <v>10.64120354747895</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.749429080753515</v>
+        <v>4.729802213777658</v>
       </c>
       <c r="E12">
-        <v>9.210016956241097</v>
+        <v>7.477390899934562</v>
       </c>
       <c r="F12">
-        <v>59.27602275347849</v>
+        <v>55.28228100397457</v>
       </c>
       <c r="G12">
-        <v>3.788226251485608</v>
+        <v>2.124762413059457</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>40.10295046089338</v>
+        <v>34.2277965755193</v>
       </c>
       <c r="J12">
-        <v>9.549885268288543</v>
+        <v>6.558419707714798</v>
       </c>
       <c r="K12">
-        <v>17.74462063883683</v>
+        <v>18.28196973741399</v>
       </c>
       <c r="L12">
-        <v>13.34082937767179</v>
+        <v>9.491725300433471</v>
       </c>
       <c r="M12">
-        <v>17.19560111506263</v>
+        <v>11.0629284829685</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.04439450907713</v>
+        <v>10.61810777704757</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.744735762378939</v>
+        <v>4.720543776427641</v>
       </c>
       <c r="E13">
-        <v>9.207177131451035</v>
+        <v>7.465472852940666</v>
       </c>
       <c r="F13">
-        <v>59.25766752057375</v>
+        <v>55.19289311370959</v>
       </c>
       <c r="G13">
-        <v>3.788418513545088</v>
+        <v>2.125399996670786</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40.0957273827381</v>
+        <v>34.19148525396712</v>
       </c>
       <c r="J13">
-        <v>9.549235337865193</v>
+        <v>6.556107712540006</v>
       </c>
       <c r="K13">
-        <v>17.73714891977768</v>
+        <v>18.22728140329371</v>
       </c>
       <c r="L13">
-        <v>13.34037799540276</v>
+        <v>9.477898831635178</v>
       </c>
       <c r="M13">
-        <v>17.19612573058849</v>
+        <v>11.04904602774472</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.04054149144631</v>
+        <v>10.54269848090257</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.729384951698306</v>
+        <v>4.690365426631575</v>
       </c>
       <c r="E14">
-        <v>9.197896038035054</v>
+        <v>7.426602959603651</v>
       </c>
       <c r="F14">
-        <v>59.1979679827293</v>
+        <v>54.90154841469496</v>
       </c>
       <c r="G14">
-        <v>3.789048350615084</v>
+        <v>2.127480411045165</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>40.07224882004214</v>
+        <v>34.07331814691253</v>
       </c>
       <c r="J14">
-        <v>9.547109262309805</v>
+        <v>6.548583920919501</v>
       </c>
       <c r="K14">
-        <v>17.71288844982997</v>
+        <v>18.0482885373737</v>
       </c>
       <c r="L14">
-        <v>13.33896725770209</v>
+        <v>9.432908206044797</v>
       </c>
       <c r="M14">
-        <v>17.19791604648713</v>
+        <v>11.00390512963593</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.03825242335951</v>
+        <v>10.49644042029808</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.71994785442909</v>
+        <v>4.671891622751756</v>
       </c>
       <c r="E15">
-        <v>9.192195897918468</v>
+        <v>7.40279102453774</v>
       </c>
       <c r="F15">
-        <v>59.16152458855978</v>
+        <v>54.72322020494301</v>
       </c>
       <c r="G15">
-        <v>3.789436319426245</v>
+        <v>2.128755652085385</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>40.0579272087395</v>
+        <v>34.00112969451246</v>
       </c>
       <c r="J15">
-        <v>9.545801970538417</v>
+        <v>6.543987337814572</v>
       </c>
       <c r="K15">
-        <v>17.69811047625808</v>
+        <v>17.93815335076814</v>
       </c>
       <c r="L15">
-        <v>13.33815028035344</v>
+        <v>9.405427169622124</v>
       </c>
       <c r="M15">
-        <v>17.1990737198456</v>
+        <v>10.97635701798641</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.02622658786449</v>
+        <v>10.23034830057845</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.665350806357837</v>
+        <v>4.566178212258264</v>
       </c>
       <c r="E16">
-        <v>9.159298432762924</v>
+        <v>7.266247519788811</v>
       </c>
       <c r="F16">
-        <v>58.95461530711512</v>
+        <v>53.70324838040415</v>
       </c>
       <c r="G16">
-        <v>3.791693029209505</v>
+        <v>2.13608055262776</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.97677721071386</v>
+        <v>33.59034298623769</v>
       </c>
       <c r="J16">
-        <v>9.538233394339066</v>
+        <v>6.517812056373478</v>
       </c>
       <c r="K16">
-        <v>17.6147044550865</v>
+        <v>17.29926440274357</v>
       </c>
       <c r="L16">
-        <v>13.33419192724387</v>
+        <v>9.249118501321316</v>
       </c>
       <c r="M16">
-        <v>17.20664433536225</v>
+        <v>10.82005220439417</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.01982697566237</v>
+        <v>10.06625169477658</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.631405720146651</v>
+        <v>4.501442429111377</v>
       </c>
       <c r="E17">
-        <v>9.138910458663222</v>
+        <v>7.182363433876496</v>
       </c>
       <c r="F17">
-        <v>58.82943801708736</v>
+        <v>53.07926833801569</v>
       </c>
       <c r="G17">
-        <v>3.793107347175072</v>
+        <v>2.14059224301955</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.92782342563392</v>
+        <v>33.3408717350364</v>
       </c>
       <c r="J17">
-        <v>9.533521335128963</v>
+        <v>6.501884334601554</v>
       </c>
       <c r="K17">
-        <v>17.5647012783075</v>
+        <v>16.90027378579146</v>
       </c>
       <c r="L17">
-        <v>13.33241001864457</v>
+        <v>9.154271281999057</v>
       </c>
       <c r="M17">
-        <v>17.21212496984924</v>
+        <v>10.72555919984762</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.01650677937953</v>
+        <v>9.971570536445823</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.61171939734465</v>
+        <v>4.464243769225492</v>
       </c>
       <c r="E18">
-        <v>9.127108289080073</v>
+        <v>7.134056485992893</v>
       </c>
       <c r="F18">
-        <v>58.75809592333423</v>
+        <v>52.72101537197065</v>
       </c>
       <c r="G18">
-        <v>3.793931845512458</v>
+        <v>2.143195012235354</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>39.89997389356783</v>
+        <v>33.19829492349673</v>
       </c>
       <c r="J18">
-        <v>9.530785629057009</v>
+        <v>6.492764066256913</v>
       </c>
       <c r="K18">
-        <v>17.5363766211589</v>
+        <v>16.66814031713088</v>
       </c>
       <c r="L18">
-        <v>13.33162299661204</v>
+        <v>9.100100170226462</v>
       </c>
       <c r="M18">
-        <v>17.21558487893893</v>
+        <v>10.6717230447536</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.01544468739161</v>
+        <v>9.939464017151547</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.605026507165222</v>
+        <v>4.451654493540432</v>
       </c>
       <c r="E19">
-        <v>9.123099332667671</v>
+        <v>7.117689097261819</v>
       </c>
       <c r="F19">
-        <v>58.73405457094887</v>
+        <v>52.59982866260125</v>
       </c>
       <c r="G19">
-        <v>3.794212902230031</v>
+        <v>2.144077700049834</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>39.89059756462963</v>
+        <v>33.15017598870262</v>
       </c>
       <c r="J19">
-        <v>9.529854984409925</v>
+        <v>6.489682512432076</v>
       </c>
       <c r="K19">
-        <v>17.52686199733973</v>
+        <v>16.58908490287928</v>
       </c>
       <c r="L19">
-        <v>13.33139741026177</v>
+        <v>9.081824462216371</v>
       </c>
       <c r="M19">
-        <v>17.21680919619459</v>
+        <v>10.65358344518966</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.02047092420188</v>
+        <v>10.08375125512949</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.635036090433114</v>
+        <v>4.508329832714689</v>
       </c>
       <c r="E20">
-        <v>9.141088619229762</v>
+        <v>7.191298822197465</v>
       </c>
       <c r="F20">
-        <v>58.84269566068687</v>
+        <v>53.14562564695089</v>
       </c>
       <c r="G20">
-        <v>3.792955650806741</v>
+        <v>2.140111186653419</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39.93300288578762</v>
+        <v>33.3673335524179</v>
       </c>
       <c r="J20">
-        <v>9.534025573939521</v>
+        <v>6.503575482287928</v>
       </c>
       <c r="K20">
-        <v>17.56997927532188</v>
+        <v>16.94301957381196</v>
       </c>
       <c r="L20">
-        <v>13.33257509278098</v>
+        <v>9.164328339271352</v>
       </c>
       <c r="M20">
-        <v>17.21150971768565</v>
+        <v>10.73556500889492</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.04165842469835</v>
+        <v>10.56486219396136</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.733901021552629</v>
+        <v>4.699227129894382</v>
       </c>
       <c r="E21">
-        <v>9.200625290103487</v>
+        <v>7.438020513302349</v>
       </c>
       <c r="F21">
-        <v>59.21547734831929</v>
+        <v>54.98709649749347</v>
       </c>
       <c r="G21">
-        <v>3.788862899021773</v>
+        <v>2.126869156559813</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>40.07913262030557</v>
+        <v>34.10798648280667</v>
       </c>
       <c r="J21">
-        <v>9.547734785557598</v>
+        <v>6.550791306377421</v>
       </c>
       <c r="K21">
-        <v>17.71999724157624</v>
+        <v>18.10096630614915</v>
       </c>
       <c r="L21">
-        <v>13.33937180377148</v>
+        <v>9.446106973275189</v>
       </c>
       <c r="M21">
-        <v>17.19737746556788</v>
+        <v>11.01714284550844</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.05868791454361</v>
+        <v>10.87631129577891</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.796990966682222</v>
+        <v>4.82447543041002</v>
       </c>
       <c r="E22">
-        <v>9.23885638772005</v>
+        <v>7.59909024033389</v>
       </c>
       <c r="F22">
-        <v>59.46470670105243</v>
+        <v>56.19637325135163</v>
       </c>
       <c r="G22">
-        <v>3.786285501921789</v>
+        <v>2.118259277955487</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>40.17731562604527</v>
+        <v>34.60060145289845</v>
       </c>
       <c r="J22">
-        <v>9.556470074346427</v>
+        <v>6.58216591130627</v>
       </c>
       <c r="K22">
-        <v>17.82174694207523</v>
+        <v>18.83536695174349</v>
       </c>
       <c r="L22">
-        <v>13.3459246628186</v>
+        <v>9.633709363374054</v>
       </c>
       <c r="M22">
-        <v>17.19087453091263</v>
+        <v>11.20573718249586</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.04930932463769</v>
+        <v>10.71037083068365</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.763461864570935</v>
+        <v>4.757573711650812</v>
       </c>
       <c r="E23">
-        <v>9.218514241136555</v>
+        <v>7.51312158862326</v>
       </c>
       <c r="F23">
-        <v>59.33118885494756</v>
+        <v>55.55041864692983</v>
       </c>
       <c r="G23">
-        <v>3.787652223110474</v>
+        <v>2.12285172811778</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>40.12467133241494</v>
+        <v>34.33687659659628</v>
       </c>
       <c r="J23">
-        <v>9.551828319501137</v>
+        <v>6.56536551665582</v>
       </c>
       <c r="K23">
-        <v>17.76711106768512</v>
+        <v>18.44539132656599</v>
       </c>
       <c r="L23">
-        <v>13.34223454442107</v>
+        <v>9.533263778668257</v>
       </c>
       <c r="M23">
-        <v>17.19409548352227</v>
+        <v>11.10466197875213</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.02017867643161</v>
+        <v>10.07584075814073</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.633395331264774</v>
+        <v>4.505215980613498</v>
       </c>
       <c r="E24">
-        <v>9.140104124634634</v>
+        <v>7.187259388618219</v>
       </c>
       <c r="F24">
-        <v>58.83669993348403</v>
+        <v>53.11562400680668</v>
       </c>
       <c r="G24">
-        <v>3.793024197254227</v>
+        <v>2.140328644134318</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.93066033335114</v>
+        <v>33.35536752923903</v>
       </c>
       <c r="J24">
-        <v>9.533797690714939</v>
+        <v>6.50281080142803</v>
       </c>
       <c r="K24">
-        <v>17.56759177385003</v>
+        <v>16.92370277625324</v>
       </c>
       <c r="L24">
-        <v>13.33249972314198</v>
+        <v>9.159780429343741</v>
       </c>
       <c r="M24">
-        <v>17.2117869105662</v>
+        <v>10.73103985882413</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.00255835681988</v>
+        <v>9.380418327479548</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.489269735744431</v>
+        <v>4.234344591426478</v>
       </c>
       <c r="E25">
-        <v>9.052641630786223</v>
+        <v>6.833386005531919</v>
       </c>
       <c r="F25">
-        <v>58.32854612258576</v>
+        <v>50.51437275266984</v>
       </c>
       <c r="G25">
-        <v>3.799240481752322</v>
+        <v>2.159488377226123</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>39.73316872403299</v>
+        <v>32.331407751162</v>
       </c>
       <c r="J25">
-        <v>9.5133742138741</v>
+        <v>6.43683436841359</v>
       </c>
       <c r="K25">
-        <v>17.36913186187015</v>
+        <v>15.27283561477283</v>
       </c>
       <c r="L25">
-        <v>13.33109613759463</v>
+        <v>8.771587260369666</v>
       </c>
       <c r="M25">
-        <v>17.24263154806314</v>
+        <v>10.34772227854601</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.861774493160148</v>
+        <v>14.729876504166</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.035538321362016</v>
+        <v>5.965251524812424</v>
       </c>
       <c r="E2">
-        <v>6.569352109262925</v>
+        <v>9.030589509347339</v>
       </c>
       <c r="F2">
-        <v>48.62279850477046</v>
+        <v>20.0379079117496</v>
       </c>
       <c r="G2">
-        <v>2.173976460215295</v>
+        <v>25.903406724502</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.791720937412159</v>
       </c>
       <c r="I2">
-        <v>31.6055763740304</v>
+        <v>3.727263913512589</v>
       </c>
       <c r="J2">
-        <v>6.388853816830947</v>
+        <v>8.473870377694517</v>
       </c>
       <c r="K2">
-        <v>14.20578119602426</v>
+        <v>33.93284585263842</v>
       </c>
       <c r="L2">
-        <v>8.49848773650675</v>
+        <v>6.488174407522659</v>
       </c>
       <c r="M2">
-        <v>10.0826638389475</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>37.45462707441501</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.80544361171332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.508180057239272</v>
+        <v>13.77350892774616</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.901132966687681</v>
+        <v>6.010440492453888</v>
       </c>
       <c r="E3">
-        <v>6.387735144786848</v>
+        <v>9.079735906574978</v>
       </c>
       <c r="F3">
-        <v>47.35792695688855</v>
+        <v>19.36996851663761</v>
       </c>
       <c r="G3">
-        <v>2.18408321643099</v>
+        <v>24.4669503682818</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.522339790357867</v>
       </c>
       <c r="I3">
-        <v>31.13056778005489</v>
+        <v>3.835204467496428</v>
       </c>
       <c r="J3">
-        <v>6.35641625623823</v>
+        <v>8.321161361641696</v>
       </c>
       <c r="K3">
-        <v>13.46409917527999</v>
+        <v>32.07518219321179</v>
       </c>
       <c r="L3">
-        <v>8.321536257982579</v>
+        <v>6.491514743897794</v>
       </c>
       <c r="M3">
-        <v>9.913947755750911</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>35.06044220491604</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.28737918692332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.290878462228761</v>
+        <v>13.14868396064521</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.818793704390633</v>
+        <v>6.039281579895111</v>
       </c>
       <c r="E4">
-        <v>6.274783758886306</v>
+        <v>9.109847779924868</v>
       </c>
       <c r="F4">
-        <v>46.59073785776501</v>
+        <v>18.96295437647085</v>
       </c>
       <c r="G4">
-        <v>2.190445803733073</v>
+        <v>23.56085729090592</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.352206399025489</v>
       </c>
       <c r="I4">
-        <v>30.84708007598615</v>
+        <v>3.90305103395772</v>
       </c>
       <c r="J4">
-        <v>6.336453642664885</v>
+        <v>8.231074711237097</v>
       </c>
       <c r="K4">
-        <v>13.000723612822</v>
+        <v>30.9030761062712</v>
       </c>
       <c r="L4">
-        <v>8.216984687222331</v>
+        <v>6.493174534107238</v>
       </c>
       <c r="M4">
-        <v>9.815814230209391</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>33.50994966159014</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.97022774976259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.202422831503165</v>
+        <v>12.87830133160635</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.785295036147234</v>
+        <v>6.050159264762176</v>
       </c>
       <c r="E5">
-        <v>6.228381627555648</v>
+        <v>9.121466576208793</v>
       </c>
       <c r="F5">
-        <v>46.28065743954774</v>
+        <v>18.79246603597473</v>
       </c>
       <c r="G5">
-        <v>2.193080121911327</v>
+        <v>23.1795269598144</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.28208489699022</v>
       </c>
       <c r="I5">
-        <v>30.7335911707572</v>
+        <v>3.933247969904912</v>
       </c>
       <c r="J5">
-        <v>6.32829574548507</v>
+        <v>8.193995312799355</v>
       </c>
       <c r="K5">
-        <v>12.81011266611777</v>
+        <v>30.45949392317486</v>
       </c>
       <c r="L5">
-        <v>8.17542397463134</v>
+        <v>6.493662317841471</v>
       </c>
       <c r="M5">
-        <v>9.77720784622011</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>32.88312258021138</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.83834167866843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.187745197220458</v>
+        <v>12.82516132874683</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.779736254350532</v>
+        <v>6.050586316458255</v>
       </c>
       <c r="E6">
-        <v>6.220653754838908</v>
+        <v>9.122620040243268</v>
       </c>
       <c r="F6">
-        <v>46.22932865259498</v>
+        <v>18.75736538786551</v>
       </c>
       <c r="G6">
-        <v>2.193520112572739</v>
+        <v>23.10798306798424</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.270890549223636</v>
       </c>
       <c r="I6">
-        <v>30.71486874243587</v>
+        <v>3.941046812165066</v>
       </c>
       <c r="J6">
-        <v>6.326939428191157</v>
+        <v>8.186298959224747</v>
       </c>
       <c r="K6">
-        <v>12.77836173856543</v>
+        <v>30.4362221465833</v>
       </c>
       <c r="L6">
-        <v>8.16858637347943</v>
+        <v>6.49362632187129</v>
       </c>
       <c r="M6">
-        <v>9.770881151995855</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>32.80868849336439</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.81274436106384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.289684925220159</v>
+        <v>13.12465559872061</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.818341692367798</v>
+        <v>6.035638585573453</v>
       </c>
       <c r="E7">
-        <v>6.274159488847165</v>
+        <v>9.107947100519567</v>
       </c>
       <c r="F7">
-        <v>46.58654541128926</v>
+        <v>18.94221448334153</v>
       </c>
       <c r="G7">
-        <v>2.190481160396389</v>
+        <v>23.53469021159263</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.352705575272648</v>
       </c>
       <c r="I7">
-        <v>30.845541312401</v>
+        <v>3.910673325200995</v>
       </c>
       <c r="J7">
-        <v>6.336343729883264</v>
+        <v>8.226257275912493</v>
       </c>
       <c r="K7">
-        <v>12.99815984938755</v>
+        <v>31.03351357019217</v>
       </c>
       <c r="L7">
-        <v>8.216419935256065</v>
+        <v>6.492917457943535</v>
       </c>
       <c r="M7">
-        <v>9.815287954616418</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>33.58377912646178</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.95843362570539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.739977544951536</v>
+        <v>14.38307695124455</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.989160638561928</v>
+        <v>5.97567525260702</v>
       </c>
       <c r="E8">
-        <v>6.507020460963156</v>
+        <v>9.045104794797966</v>
       </c>
       <c r="F8">
-        <v>48.1848130645453</v>
+        <v>19.7840195180504</v>
       </c>
       <c r="G8">
-        <v>2.17742995388596</v>
+        <v>25.38779738307014</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.701756842321932</v>
       </c>
       <c r="I8">
-        <v>31.44008555265913</v>
+        <v>3.773044406333872</v>
       </c>
       <c r="J8">
-        <v>6.377671662945772</v>
+        <v>8.414969614902009</v>
       </c>
       <c r="K8">
-        <v>13.95182600213495</v>
+        <v>33.46913907878405</v>
       </c>
       <c r="L8">
-        <v>8.436633215075441</v>
+        <v>6.489239426697554</v>
       </c>
       <c r="M8">
-        <v>10.02336469636375</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>36.74582369560565</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.61422841059142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.615924961580575</v>
+        <v>16.58642482336608</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.325467657143898</v>
+        <v>5.87382763610202</v>
       </c>
       <c r="E9">
-        <v>6.953047534500654</v>
+        <v>8.924210555953108</v>
       </c>
       <c r="F9">
-        <v>51.38715092173742</v>
+        <v>21.48187402372223</v>
       </c>
       <c r="G9">
-        <v>2.15298244705051</v>
+        <v>28.8490827730283</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.347346913579615</v>
       </c>
       <c r="I9">
-        <v>32.67186459792381</v>
+        <v>3.503890157668224</v>
       </c>
       <c r="J9">
-        <v>6.458923266948857</v>
+        <v>8.820948101134942</v>
       </c>
       <c r="K9">
-        <v>15.78191637651666</v>
+        <v>37.75558076245035</v>
       </c>
       <c r="L9">
-        <v>8.900391883405428</v>
+        <v>6.478805983285388</v>
       </c>
       <c r="M9">
-        <v>10.4741983258215</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>42.17936943488188</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>15.91759716889544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.24903122283098</v>
+        <v>18.0430975989383</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.57357032063387</v>
+        <v>5.781311407820438</v>
       </c>
       <c r="E10">
-        <v>7.275812349200146</v>
+        <v>8.879804474217737</v>
       </c>
       <c r="F10">
-        <v>53.77453556288859</v>
+        <v>22.54503889750824</v>
       </c>
       <c r="G10">
-        <v>2.135566710288357</v>
+        <v>31.04467849193382</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.787242417517803</v>
       </c>
       <c r="I10">
-        <v>33.61893431355798</v>
+        <v>3.316810292682903</v>
       </c>
       <c r="J10">
-        <v>6.519635551724516</v>
+        <v>9.092439247653845</v>
       </c>
       <c r="K10">
-        <v>17.34443740192851</v>
+        <v>40.87763140199883</v>
       </c>
       <c r="L10">
-        <v>9.259993090147042</v>
+        <v>6.507819695413527</v>
       </c>
       <c r="M10">
-        <v>10.83090402403986</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>45.7186312005428</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.76777276531728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.53385651477966</v>
+        <v>18.85000480572351</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.686832017584655</v>
+        <v>5.594756060361385</v>
       </c>
       <c r="E11">
-        <v>7.422049602122442</v>
+        <v>9.508864460563467</v>
       </c>
       <c r="F11">
-        <v>54.86743898449075</v>
+        <v>21.47503080745791</v>
       </c>
       <c r="G11">
-        <v>2.127724218797074</v>
+        <v>30.28158458528578</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.362195913007458</v>
       </c>
       <c r="I11">
-        <v>34.05950214329442</v>
+        <v>3.243817606959901</v>
       </c>
       <c r="J11">
-        <v>6.547704219143813</v>
+        <v>8.85228463595619</v>
       </c>
       <c r="K11">
-        <v>18.02725690358567</v>
+        <v>43.23538128964655</v>
       </c>
       <c r="L11">
-        <v>9.427648428806075</v>
+        <v>6.975258018280189</v>
       </c>
       <c r="M11">
-        <v>10.99863103963947</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>46.49023712012291</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.30959970009238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.64120354747895</v>
+        <v>19.26213509570952</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.729802213777658</v>
+        <v>5.534075139105159</v>
       </c>
       <c r="E12">
-        <v>7.477390899934562</v>
+        <v>10.33436708276455</v>
       </c>
       <c r="F12">
-        <v>55.28228100397457</v>
+        <v>20.34457219185025</v>
       </c>
       <c r="G12">
-        <v>2.124762413059457</v>
+        <v>29.18662900106964</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.284677427073497</v>
       </c>
       <c r="I12">
-        <v>34.2277965755193</v>
+        <v>3.208389455804735</v>
       </c>
       <c r="J12">
-        <v>6.558419707714798</v>
+        <v>8.589262400026724</v>
       </c>
       <c r="K12">
-        <v>18.28196973741399</v>
+        <v>44.41774637762326</v>
       </c>
       <c r="L12">
-        <v>9.491725300433471</v>
+        <v>7.494724025946217</v>
       </c>
       <c r="M12">
-        <v>11.0629284829685</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>46.30997523142651</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.74142771884468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.61810777704757</v>
+        <v>19.38610274644784</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.720543776427641</v>
+        <v>5.561656235334339</v>
       </c>
       <c r="E13">
-        <v>7.465472852940666</v>
+        <v>11.29220133294771</v>
       </c>
       <c r="F13">
-        <v>55.19289311370959</v>
+        <v>19.04695802636793</v>
       </c>
       <c r="G13">
-        <v>2.125399996670786</v>
+        <v>27.70267194955282</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.357592663052943</v>
       </c>
       <c r="I13">
-        <v>34.19148525396712</v>
+        <v>3.211065278727485</v>
       </c>
       <c r="J13">
-        <v>6.556107712540006</v>
+        <v>8.282232407004081</v>
       </c>
       <c r="K13">
-        <v>18.22728140329371</v>
+        <v>44.96792254940937</v>
       </c>
       <c r="L13">
-        <v>9.477898831635178</v>
+        <v>8.058318428363531</v>
       </c>
       <c r="M13">
-        <v>11.04904602774472</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>45.4769337205642</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.02495406802285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.54269848090257</v>
+        <v>19.34026746779847</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.690365426631575</v>
+        <v>5.628869757823987</v>
       </c>
       <c r="E14">
-        <v>7.426602959603651</v>
+        <v>12.02766587006397</v>
       </c>
       <c r="F14">
-        <v>54.90154841469496</v>
+        <v>18.04690169900828</v>
       </c>
       <c r="G14">
-        <v>2.127480411045165</v>
+        <v>26.46053490023034</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.171086993526032</v>
       </c>
       <c r="I14">
-        <v>34.07331814691253</v>
+        <v>3.232445284273008</v>
       </c>
       <c r="J14">
-        <v>6.548583920919501</v>
+        <v>8.044924277432544</v>
       </c>
       <c r="K14">
-        <v>18.0482885373737</v>
+        <v>45.10780923182045</v>
       </c>
       <c r="L14">
-        <v>9.432908206044797</v>
+        <v>8.477527756737741</v>
       </c>
       <c r="M14">
-        <v>11.00390512963593</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>44.60344551407398</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.44641114310524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.49644042029808</v>
+        <v>19.26098776776026</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.671891622751756</v>
+        <v>5.653546537010516</v>
       </c>
       <c r="E15">
-        <v>7.40279102453774</v>
+        <v>12.20468976081629</v>
       </c>
       <c r="F15">
-        <v>54.72322020494301</v>
+        <v>17.76314247996791</v>
       </c>
       <c r="G15">
-        <v>2.128755652085385</v>
+        <v>26.06496837750569</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.355386785322827</v>
       </c>
       <c r="I15">
-        <v>34.00112969451246</v>
+        <v>3.24922051173941</v>
       </c>
       <c r="J15">
-        <v>6.543987337814572</v>
+        <v>7.977312265296502</v>
       </c>
       <c r="K15">
-        <v>17.93815335076814</v>
+        <v>45.05171540959025</v>
       </c>
       <c r="L15">
-        <v>9.405427169622124</v>
+        <v>8.575177495650982</v>
       </c>
       <c r="M15">
-        <v>10.97635701798641</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>44.27355363340845</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.2710976919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.23034830057845</v>
+        <v>18.64540402669595</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.566178212258264</v>
+        <v>5.682546104612044</v>
       </c>
       <c r="E16">
-        <v>7.266247519788811</v>
+        <v>12.01735837634393</v>
       </c>
       <c r="F16">
-        <v>53.70324838040415</v>
+        <v>17.49328766368806</v>
       </c>
       <c r="G16">
-        <v>2.13608055262776</v>
+        <v>25.3050048280203</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.05736086568903</v>
       </c>
       <c r="I16">
-        <v>33.59034298623769</v>
+        <v>3.333810932455964</v>
       </c>
       <c r="J16">
-        <v>6.517812056373478</v>
+        <v>7.910292567889278</v>
       </c>
       <c r="K16">
-        <v>17.29926440274357</v>
+        <v>43.7701440504033</v>
       </c>
       <c r="L16">
-        <v>9.249118501321316</v>
+        <v>8.443002528772753</v>
       </c>
       <c r="M16">
-        <v>10.82005220439417</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>42.97446965978776</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.00665994356783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.06625169477658</v>
+        <v>18.18620130051225</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.501442429111377</v>
+        <v>5.664009269812635</v>
       </c>
       <c r="E17">
-        <v>7.182363433876496</v>
+        <v>11.46317823090424</v>
       </c>
       <c r="F17">
-        <v>53.07926833801569</v>
+        <v>17.83789658463814</v>
       </c>
       <c r="G17">
-        <v>2.14059224301955</v>
+        <v>25.4151743351729</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.344803792345269</v>
       </c>
       <c r="I17">
-        <v>33.3408717350364</v>
+        <v>3.387731156887229</v>
       </c>
       <c r="J17">
-        <v>6.501884334601554</v>
+        <v>7.988435701052094</v>
       </c>
       <c r="K17">
-        <v>16.90027378579146</v>
+        <v>42.69405394122498</v>
       </c>
       <c r="L17">
-        <v>9.154271281999057</v>
+        <v>8.108301078601347</v>
       </c>
       <c r="M17">
-        <v>10.72555919984762</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>42.44878092033438</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.12383531698095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.971570536445823</v>
+        <v>17.83264780554905</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.464243769225492</v>
+        <v>5.638225654925741</v>
       </c>
       <c r="E18">
-        <v>7.134056485992893</v>
+        <v>10.60440227180916</v>
       </c>
       <c r="F18">
-        <v>52.72101537197065</v>
+        <v>18.75351001665596</v>
       </c>
       <c r="G18">
-        <v>2.143195012235354</v>
+        <v>26.30172297939853</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.264571059253959</v>
       </c>
       <c r="I18">
-        <v>33.19829492349673</v>
+        <v>3.413377829719567</v>
       </c>
       <c r="J18">
-        <v>6.492764066256913</v>
+        <v>8.199674137364459</v>
       </c>
       <c r="K18">
-        <v>16.66814031713088</v>
+        <v>41.58588680105476</v>
       </c>
       <c r="L18">
-        <v>9.100100170226462</v>
+        <v>7.598274350580099</v>
       </c>
       <c r="M18">
-        <v>10.6717230447536</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>42.48914004105517</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>14.58404766335497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.939464017151547</v>
+        <v>17.56709846672287</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.451654493540432</v>
+        <v>5.65758977892011</v>
       </c>
       <c r="E19">
-        <v>7.117689097261819</v>
+        <v>9.7300369381243</v>
       </c>
       <c r="F19">
-        <v>52.59982866260125</v>
+        <v>20.01514495032939</v>
       </c>
       <c r="G19">
-        <v>2.144077700049834</v>
+        <v>27.69322330204742</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.190951985712331</v>
       </c>
       <c r="I19">
-        <v>33.15017598870262</v>
+        <v>3.428896951377281</v>
       </c>
       <c r="J19">
-        <v>6.489682512432076</v>
+        <v>8.491352062714849</v>
       </c>
       <c r="K19">
-        <v>16.58908490287928</v>
+        <v>40.76413616337115</v>
       </c>
       <c r="L19">
-        <v>9.081824462216371</v>
+        <v>7.066311857461654</v>
       </c>
       <c r="M19">
-        <v>10.65358344518966</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>43.09502181925508</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.25915621051175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.08375125512949</v>
+        <v>17.62557884827279</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.508329832714689</v>
+        <v>5.793168187487777</v>
       </c>
       <c r="E20">
-        <v>7.191298822197465</v>
+        <v>8.889491984219539</v>
       </c>
       <c r="F20">
-        <v>53.14562564695089</v>
+        <v>22.21089977512157</v>
       </c>
       <c r="G20">
-        <v>2.140111186653419</v>
+        <v>30.41874090947852</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.676259666445225</v>
       </c>
       <c r="I20">
-        <v>33.3673335524179</v>
+        <v>3.388229886134826</v>
       </c>
       <c r="J20">
-        <v>6.503575482287928</v>
+        <v>9.006578761908921</v>
       </c>
       <c r="K20">
-        <v>16.94301957381196</v>
+        <v>40.42304002512318</v>
       </c>
       <c r="L20">
-        <v>9.164328339271352</v>
+        <v>6.502614157423425</v>
       </c>
       <c r="M20">
-        <v>10.73556500889492</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>45.00543093354177</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.51548419043595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.56486219396136</v>
+        <v>18.66374771909818</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.699227129894382</v>
+        <v>5.760948459241757</v>
       </c>
       <c r="E21">
-        <v>7.438020513302349</v>
+        <v>8.784450346218993</v>
       </c>
       <c r="F21">
-        <v>54.98709649749347</v>
+        <v>23.31243639384988</v>
       </c>
       <c r="G21">
-        <v>2.126869156559813</v>
+        <v>32.38149604730387</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.031306717661589</v>
       </c>
       <c r="I21">
-        <v>34.10798648280667</v>
+        <v>3.242398445942884</v>
       </c>
       <c r="J21">
-        <v>6.550791306377421</v>
+        <v>9.287188609446128</v>
       </c>
       <c r="K21">
-        <v>18.10096630614915</v>
+        <v>42.52122087380024</v>
       </c>
       <c r="L21">
-        <v>9.446106973275189</v>
+        <v>6.463552623036072</v>
       </c>
       <c r="M21">
-        <v>11.01714284550844</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>47.70121083399622</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.31989078410478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.87631129577891</v>
+        <v>19.34106370533549</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.82447543041002</v>
+        <v>5.734705454549929</v>
       </c>
       <c r="E22">
-        <v>7.59909024033389</v>
+        <v>8.740959787311398</v>
       </c>
       <c r="F22">
-        <v>56.19637325135163</v>
+        <v>23.95648085094095</v>
       </c>
       <c r="G22">
-        <v>2.118259277955487</v>
+        <v>33.55122814167637</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.249917884071485</v>
       </c>
       <c r="I22">
-        <v>34.60060145289845</v>
+        <v>3.138794379332797</v>
       </c>
       <c r="J22">
-        <v>6.58216591130627</v>
+        <v>9.456525792199464</v>
       </c>
       <c r="K22">
-        <v>18.83536695174349</v>
+        <v>43.77412721573568</v>
       </c>
       <c r="L22">
-        <v>9.633709363374054</v>
+        <v>6.457186738818329</v>
       </c>
       <c r="M22">
-        <v>11.20573718249586</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>49.26950936642123</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.80249596063787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.71037083068365</v>
+        <v>18.99945186157314</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.757573711650812</v>
+        <v>5.752793622084791</v>
       </c>
       <c r="E23">
-        <v>7.51312158862326</v>
+        <v>8.765787227408651</v>
       </c>
       <c r="F23">
-        <v>55.55041864692983</v>
+        <v>23.62938852530053</v>
       </c>
       <c r="G23">
-        <v>2.12285172811778</v>
+        <v>32.94628597730438</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.131619747498149</v>
       </c>
       <c r="I23">
-        <v>34.33687659659628</v>
+        <v>3.185094436356227</v>
       </c>
       <c r="J23">
-        <v>6.56536551665582</v>
+        <v>9.370060101841025</v>
       </c>
       <c r="K23">
-        <v>18.44539132656599</v>
+        <v>42.98411546080372</v>
       </c>
       <c r="L23">
-        <v>9.533263778668257</v>
+        <v>6.460410942325347</v>
       </c>
       <c r="M23">
-        <v>11.10466197875213</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>48.36943500883029</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.55404417396564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.07584075814073</v>
+        <v>17.61674112413442</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.505215980613498</v>
+        <v>5.81758767699603</v>
       </c>
       <c r="E24">
-        <v>7.187259388618219</v>
+        <v>8.856758580696814</v>
       </c>
       <c r="F24">
-        <v>53.11562400680668</v>
+        <v>22.3616874802674</v>
       </c>
       <c r="G24">
-        <v>2.140328644134318</v>
+        <v>30.57487781053108</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.680480591790979</v>
       </c>
       <c r="I24">
-        <v>33.35536752923903</v>
+        <v>3.376684919244803</v>
       </c>
       <c r="J24">
-        <v>6.50281080142803</v>
+        <v>9.041833333460556</v>
       </c>
       <c r="K24">
-        <v>16.92370277625324</v>
+        <v>40.11055674204341</v>
       </c>
       <c r="L24">
-        <v>9.159780429343741</v>
+        <v>6.471882432550722</v>
       </c>
       <c r="M24">
-        <v>10.73103985882413</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>44.92637066677019</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.5937848503437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.380418327479548</v>
+        <v>15.99146321300518</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.234344591426478</v>
+        <v>5.893744128144167</v>
       </c>
       <c r="E25">
-        <v>6.833386005531919</v>
+        <v>8.95416730087892</v>
       </c>
       <c r="F25">
-        <v>50.51437275266984</v>
+        <v>20.99288504653554</v>
       </c>
       <c r="G25">
-        <v>2.159488377226123</v>
+        <v>27.90553370409325</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.179144511098886</v>
       </c>
       <c r="I25">
-        <v>32.331407751162</v>
+        <v>3.58792138538222</v>
       </c>
       <c r="J25">
-        <v>6.43683436841359</v>
+        <v>8.701069747142409</v>
       </c>
       <c r="K25">
-        <v>15.27283561477283</v>
+        <v>36.84074770511374</v>
       </c>
       <c r="L25">
-        <v>8.771587260369666</v>
+        <v>6.482080150447945</v>
       </c>
       <c r="M25">
-        <v>10.34772227854601</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>40.90023059536723</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>15.55014044534022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.729876504166</v>
+        <v>16.18677046034573</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.965251524812424</v>
+        <v>6.166699473571398</v>
       </c>
       <c r="E2">
-        <v>9.030589509347339</v>
+        <v>9.156303627461623</v>
       </c>
       <c r="F2">
-        <v>20.0379079117496</v>
+        <v>21.47953452846759</v>
       </c>
       <c r="G2">
-        <v>25.903406724502</v>
+        <v>27.07526887115899</v>
       </c>
       <c r="H2">
-        <v>2.791720937412159</v>
+        <v>2.646533918534371</v>
       </c>
       <c r="I2">
-        <v>3.727263913512589</v>
+        <v>3.447449090595565</v>
       </c>
       <c r="J2">
-        <v>8.473870377694517</v>
+        <v>9.547120240635202</v>
       </c>
       <c r="K2">
-        <v>33.93284585263842</v>
+        <v>24.1283424965974</v>
       </c>
       <c r="L2">
-        <v>6.488174407522659</v>
+        <v>17.67669687048631</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.31370879264712</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.497564264444263</v>
       </c>
       <c r="O2">
-        <v>37.45462707441501</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.80544361171332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>31.69978977510993</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.63246578841748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.77350892774616</v>
+        <v>15.16713364215599</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.010440492453888</v>
+        <v>6.186585217568117</v>
       </c>
       <c r="E3">
-        <v>9.079735906574978</v>
+        <v>9.191629757533464</v>
       </c>
       <c r="F3">
-        <v>19.36996851663761</v>
+        <v>20.72370874971022</v>
       </c>
       <c r="G3">
-        <v>24.4669503682818</v>
+        <v>25.52205121896619</v>
       </c>
       <c r="H3">
-        <v>2.522339790357867</v>
+        <v>2.395372773970122</v>
       </c>
       <c r="I3">
-        <v>3.835204467496428</v>
+        <v>3.529551626848476</v>
       </c>
       <c r="J3">
-        <v>8.321161361641696</v>
+        <v>9.359066076285078</v>
       </c>
       <c r="K3">
-        <v>32.07518219321179</v>
+        <v>22.92916526802561</v>
       </c>
       <c r="L3">
-        <v>6.491514743897794</v>
+        <v>16.479109477074</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>17.68013242835612</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.501710948752761</v>
       </c>
       <c r="O3">
-        <v>35.06044220491604</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.28737918692332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>29.6049594612992</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>15.07002640871888</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.14868396064521</v>
+        <v>14.50194059998679</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.039281579895111</v>
+        <v>6.199829679848122</v>
       </c>
       <c r="E4">
-        <v>9.109847779924868</v>
+        <v>9.213033253149773</v>
       </c>
       <c r="F4">
-        <v>18.96295437647085</v>
+        <v>20.25717769682392</v>
       </c>
       <c r="G4">
-        <v>23.56085729090592</v>
+        <v>24.53873825123794</v>
       </c>
       <c r="H4">
-        <v>2.352206399025489</v>
+        <v>2.236415685409882</v>
       </c>
       <c r="I4">
-        <v>3.90305103395772</v>
+        <v>3.58161803525912</v>
       </c>
       <c r="J4">
-        <v>8.231074711237097</v>
+        <v>9.243884350204592</v>
       </c>
       <c r="K4">
-        <v>30.9030761062712</v>
+        <v>22.18425631163431</v>
       </c>
       <c r="L4">
-        <v>6.493174534107238</v>
+        <v>15.7395985184815</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>17.28717979992022</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.503740331467614</v>
       </c>
       <c r="O4">
-        <v>33.50994966159014</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.97022774976259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>28.24690477065532</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.72246239267765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.87830133160635</v>
+        <v>14.2163692741911</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.050159264762176</v>
+        <v>6.204486292248547</v>
       </c>
       <c r="E5">
-        <v>9.121466576208793</v>
+        <v>9.220396177049379</v>
       </c>
       <c r="F5">
-        <v>18.79246603597473</v>
+        <v>20.06252258475572</v>
       </c>
       <c r="G5">
-        <v>23.1795269598144</v>
+        <v>24.12615567486052</v>
       </c>
       <c r="H5">
-        <v>2.28208489699022</v>
+        <v>2.170656042018953</v>
       </c>
       <c r="I5">
-        <v>3.933247969904912</v>
+        <v>3.606066131291446</v>
       </c>
       <c r="J5">
-        <v>8.193995312799355</v>
+        <v>9.196143550901288</v>
       </c>
       <c r="K5">
-        <v>30.45949392317486</v>
+        <v>21.90628348477182</v>
       </c>
       <c r="L5">
-        <v>6.493662317841471</v>
+        <v>15.45725487191888</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>17.14799252016324</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.503978548565385</v>
       </c>
       <c r="O5">
-        <v>32.88312258021138</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.83834167866843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>27.69417583122839</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.57820004548118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.82516132874683</v>
+        <v>14.1626678805652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.050586316458255</v>
+        <v>6.204066216463717</v>
       </c>
       <c r="E6">
-        <v>9.122620040243268</v>
+        <v>9.220050721027468</v>
       </c>
       <c r="F6">
-        <v>18.75736538786551</v>
+        <v>20.02509891997251</v>
       </c>
       <c r="G6">
-        <v>23.10798306798424</v>
+        <v>24.05131886067768</v>
       </c>
       <c r="H6">
-        <v>2.270890549223636</v>
+        <v>2.159948068994908</v>
       </c>
       <c r="I6">
-        <v>3.941046812165066</v>
+        <v>3.613769761463649</v>
       </c>
       <c r="J6">
-        <v>8.186298959224747</v>
+        <v>9.187108543626785</v>
       </c>
       <c r="K6">
-        <v>30.4362221465833</v>
+        <v>21.89336295908343</v>
       </c>
       <c r="L6">
-        <v>6.49362632187129</v>
+        <v>15.43365342947032</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>17.15154934913433</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.503451490887993</v>
       </c>
       <c r="O6">
-        <v>32.80868849336439</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.81274436106384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>27.62419393371904</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.55147652109384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.12465559872061</v>
+        <v>14.4847041015527</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.035638585573453</v>
+        <v>6.197989517742893</v>
       </c>
       <c r="E7">
-        <v>9.107947100519567</v>
+        <v>9.208463111548999</v>
       </c>
       <c r="F7">
-        <v>18.94221448334153</v>
+        <v>20.22282601305306</v>
       </c>
       <c r="G7">
-        <v>23.53469021159263</v>
+        <v>24.62039046938688</v>
       </c>
       <c r="H7">
-        <v>2.352705575272648</v>
+        <v>2.235527965349044</v>
       </c>
       <c r="I7">
-        <v>3.910673325200995</v>
+        <v>3.59144560135865</v>
       </c>
       <c r="J7">
-        <v>8.226257275912493</v>
+        <v>9.184319969598352</v>
       </c>
       <c r="K7">
-        <v>31.03351357019217</v>
+        <v>22.27374475834197</v>
       </c>
       <c r="L7">
-        <v>6.492917457943535</v>
+        <v>15.80144308659367</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>17.35963469813618</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.501879845291075</v>
       </c>
       <c r="O7">
-        <v>33.58377912646178</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.95843362570539</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>28.2935604176607</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.69681615406068</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.38307695124455</v>
+        <v>15.83018227718204</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.97567525260702</v>
+        <v>6.173771525169864</v>
       </c>
       <c r="E8">
-        <v>9.045104794797966</v>
+        <v>9.161860113860556</v>
       </c>
       <c r="F8">
-        <v>19.7840195180504</v>
+        <v>21.14485346069473</v>
       </c>
       <c r="G8">
-        <v>25.38779738307014</v>
+        <v>26.84561347350615</v>
       </c>
       <c r="H8">
-        <v>2.701756842321932</v>
+        <v>2.559502213808533</v>
       </c>
       <c r="I8">
-        <v>3.773044406333872</v>
+        <v>3.487238945804536</v>
       </c>
       <c r="J8">
-        <v>8.414969614902009</v>
+        <v>9.297282722760023</v>
       </c>
       <c r="K8">
-        <v>33.46913907878405</v>
+        <v>23.8417780285263</v>
       </c>
       <c r="L8">
-        <v>6.489239426697554</v>
+        <v>17.35525725695214</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>18.19403196922244</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.496148841293676</v>
       </c>
       <c r="O8">
-        <v>36.74582369560565</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.61422841059142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>31.045362790847</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>15.37785192252998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.58642482336608</v>
+        <v>18.17657803272235</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.87382763610202</v>
+        <v>6.135763330213597</v>
       </c>
       <c r="E9">
-        <v>8.924210555953108</v>
+        <v>9.077120095235387</v>
       </c>
       <c r="F9">
-        <v>21.48187402372223</v>
+        <v>23.01382089574003</v>
       </c>
       <c r="G9">
-        <v>28.8490827730283</v>
+        <v>30.60414251590075</v>
       </c>
       <c r="H9">
-        <v>3.347346913579615</v>
+        <v>3.15967324480299</v>
       </c>
       <c r="I9">
-        <v>3.503890157668224</v>
+        <v>3.28067825665978</v>
       </c>
       <c r="J9">
-        <v>8.820948101134942</v>
+        <v>9.728869492173233</v>
       </c>
       <c r="K9">
-        <v>37.75558076245035</v>
+        <v>26.66304390272391</v>
       </c>
       <c r="L9">
-        <v>6.478805983285388</v>
+        <v>20.20939158666599</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>19.66685514834923</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.484500012866186</v>
       </c>
       <c r="O9">
-        <v>42.17936943488188</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.91759716889544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>35.80038388447912</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.76128287035692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.0430975989383</v>
+        <v>19.74375226120974</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.781311407820438</v>
+        <v>6.089741155696422</v>
       </c>
       <c r="E10">
-        <v>8.879804474217737</v>
+        <v>9.005235982315169</v>
       </c>
       <c r="F10">
-        <v>22.54503889750824</v>
+        <v>24.09190382318772</v>
       </c>
       <c r="G10">
-        <v>31.04467849193382</v>
+        <v>33.45952822285184</v>
       </c>
       <c r="H10">
-        <v>3.787242417517803</v>
+        <v>3.561499669831302</v>
       </c>
       <c r="I10">
-        <v>3.316810292682903</v>
+        <v>3.141933519579409</v>
       </c>
       <c r="J10">
-        <v>9.092439247653845</v>
+        <v>9.711243788132764</v>
       </c>
       <c r="K10">
-        <v>40.87763140199883</v>
+        <v>28.77408160909553</v>
       </c>
       <c r="L10">
-        <v>6.507819695413527</v>
+        <v>22.30617466460517</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>20.81138457912296</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.485754323825812</v>
       </c>
       <c r="O10">
-        <v>45.7186312005428</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.76777276531728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>38.82395238170024</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>17.57778201248284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.85000480572351</v>
+        <v>20.65813239617298</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.594756060361385</v>
+        <v>5.840636490275296</v>
       </c>
       <c r="E11">
-        <v>9.508864460563467</v>
+        <v>9.156276366112765</v>
       </c>
       <c r="F11">
-        <v>21.47503080745791</v>
+        <v>22.92186119559284</v>
       </c>
       <c r="G11">
-        <v>30.28158458528578</v>
+        <v>33.81180924802349</v>
       </c>
       <c r="H11">
-        <v>4.362195913007458</v>
+        <v>4.140170450765554</v>
       </c>
       <c r="I11">
-        <v>3.243817606959901</v>
+        <v>3.097056578356575</v>
       </c>
       <c r="J11">
-        <v>8.85228463595619</v>
+        <v>8.886475810805027</v>
       </c>
       <c r="K11">
-        <v>43.23538128964655</v>
+        <v>30.38139339773115</v>
       </c>
       <c r="L11">
-        <v>6.975258018280189</v>
+        <v>23.73080214566042</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>21.83603349905113</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.725072139067293</v>
       </c>
       <c r="O11">
-        <v>46.49023712012291</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.30959970009238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>39.1466833275481</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>16.99219830303823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.26213509570952</v>
+        <v>21.12779183524766</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.534075139105159</v>
+        <v>5.691160423892052</v>
       </c>
       <c r="E12">
-        <v>10.33436708276455</v>
+        <v>9.605863141634954</v>
       </c>
       <c r="F12">
-        <v>20.34457219185025</v>
+        <v>21.75594682093408</v>
       </c>
       <c r="G12">
-        <v>29.18662900106964</v>
+        <v>33.24674897920125</v>
       </c>
       <c r="H12">
-        <v>5.284677427073497</v>
+        <v>5.094629518165279</v>
       </c>
       <c r="I12">
-        <v>3.208389455804735</v>
+        <v>3.071344441220633</v>
       </c>
       <c r="J12">
-        <v>8.589262400026724</v>
+        <v>8.384048091010344</v>
       </c>
       <c r="K12">
-        <v>44.41774637762326</v>
+        <v>31.1762752656996</v>
       </c>
       <c r="L12">
-        <v>7.494724025946217</v>
+        <v>24.40744315878255</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>22.36734870129624</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.071065683235641</v>
       </c>
       <c r="O12">
-        <v>46.30997523142651</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.74142771884468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>38.73578702701568</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>16.37108836190091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.38610274644784</v>
+        <v>21.27891264838214</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.561656235334339</v>
+        <v>5.612842826098887</v>
       </c>
       <c r="E13">
-        <v>11.29220133294771</v>
+        <v>10.26802186153829</v>
       </c>
       <c r="F13">
-        <v>19.04695802636793</v>
+        <v>20.51525543107595</v>
       </c>
       <c r="G13">
-        <v>27.70267194955282</v>
+        <v>31.68464988700697</v>
       </c>
       <c r="H13">
-        <v>6.357592663052943</v>
+        <v>6.20269338781734</v>
       </c>
       <c r="I13">
-        <v>3.211065278727485</v>
+        <v>3.073727563487123</v>
       </c>
       <c r="J13">
-        <v>8.282232407004081</v>
+        <v>8.19045735674089</v>
       </c>
       <c r="K13">
-        <v>44.96792254940937</v>
+        <v>31.52188922641134</v>
       </c>
       <c r="L13">
-        <v>8.058318428363531</v>
+        <v>24.64563578271324</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>22.64786539201032</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.494599025135323</v>
       </c>
       <c r="O13">
-        <v>45.4769337205642</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.02495406802285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>37.80711828267988</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>15.69439910581151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.34026746779847</v>
+        <v>21.23993817939703</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.628869757823987</v>
+        <v>5.603541803709305</v>
       </c>
       <c r="E14">
-        <v>12.02766587006397</v>
+        <v>10.83912405562343</v>
       </c>
       <c r="F14">
-        <v>18.04690169900828</v>
+        <v>19.59556613843696</v>
       </c>
       <c r="G14">
-        <v>26.46053490023034</v>
+        <v>30.11510233789989</v>
       </c>
       <c r="H14">
-        <v>7.171086993526032</v>
+        <v>7.038698984523872</v>
       </c>
       <c r="I14">
-        <v>3.232445284273008</v>
+        <v>3.091137667457469</v>
       </c>
       <c r="J14">
-        <v>8.044924277432544</v>
+        <v>8.18003477622578</v>
       </c>
       <c r="K14">
-        <v>45.10780923182045</v>
+        <v>31.58803211139395</v>
       </c>
       <c r="L14">
-        <v>8.477527756737741</v>
+        <v>24.63397341847512</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>22.75220901779122</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.831380063888144</v>
       </c>
       <c r="O14">
-        <v>44.60344551407398</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.44641114310524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>36.92081842086947</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>15.18481400763174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.26098776776026</v>
+        <v>21.15772302321183</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.653546537010516</v>
+        <v>5.610241805361181</v>
       </c>
       <c r="E15">
-        <v>12.20468976081629</v>
+        <v>10.98620261905676</v>
       </c>
       <c r="F15">
-        <v>17.76314247996791</v>
+        <v>19.34887950238467</v>
       </c>
       <c r="G15">
-        <v>26.06496837750569</v>
+        <v>29.52671851604963</v>
       </c>
       <c r="H15">
-        <v>7.355386785322827</v>
+        <v>7.229039536566628</v>
       </c>
       <c r="I15">
-        <v>3.24922051173941</v>
+        <v>3.10584880058186</v>
       </c>
       <c r="J15">
-        <v>7.977312265296502</v>
+        <v>8.230495481864351</v>
       </c>
       <c r="K15">
-        <v>45.05171540959025</v>
+        <v>31.53995500465494</v>
       </c>
       <c r="L15">
-        <v>8.575177495650982</v>
+        <v>24.56073898333489</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>22.74867304623882</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.912746018309588</v>
       </c>
       <c r="O15">
-        <v>44.27355363340845</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.2710976919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>36.60903791586129</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>15.04402958702543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.64540402669595</v>
+        <v>20.48480021527281</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.682546104612044</v>
+        <v>5.64830689343476</v>
       </c>
       <c r="E16">
-        <v>12.01735837634393</v>
+        <v>10.88275870578568</v>
       </c>
       <c r="F16">
-        <v>17.49328766368806</v>
+        <v>19.20330044839745</v>
       </c>
       <c r="G16">
-        <v>25.3050048280203</v>
+        <v>27.79294986692771</v>
       </c>
       <c r="H16">
-        <v>7.05736086568903</v>
+        <v>6.942759004650201</v>
       </c>
       <c r="I16">
-        <v>3.333810932455964</v>
+        <v>3.170985856088159</v>
       </c>
       <c r="J16">
-        <v>7.910292567889278</v>
+        <v>8.685105126564247</v>
       </c>
       <c r="K16">
-        <v>43.7701440504033</v>
+        <v>30.63946767204234</v>
       </c>
       <c r="L16">
-        <v>8.443002528772753</v>
+        <v>23.67353821379622</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>22.25391371899646</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.81776097058586</v>
       </c>
       <c r="O16">
-        <v>42.97446965978776</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.00665994356783</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>35.56704126646454</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.91522101595606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.18620130051225</v>
+        <v>19.97907346017309</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.664009269812635</v>
+        <v>5.672069715371437</v>
       </c>
       <c r="E17">
-        <v>11.46317823090424</v>
+        <v>10.47564742003173</v>
       </c>
       <c r="F17">
-        <v>17.83789658463814</v>
+        <v>19.57671979912126</v>
       </c>
       <c r="G17">
-        <v>25.4151743351729</v>
+        <v>27.4492542138573</v>
       </c>
       <c r="H17">
-        <v>6.344803792345269</v>
+        <v>6.228058636422249</v>
       </c>
       <c r="I17">
-        <v>3.387731156887229</v>
+        <v>3.212269462656828</v>
       </c>
       <c r="J17">
-        <v>7.988435701052094</v>
+        <v>8.977853649611909</v>
       </c>
       <c r="K17">
-        <v>42.69405394122498</v>
+        <v>29.90852054115337</v>
       </c>
       <c r="L17">
-        <v>8.108301078601347</v>
+        <v>22.99407855971322</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>21.81631829309609</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.556035590459641</v>
       </c>
       <c r="O17">
-        <v>42.44878092033438</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.12383531698095</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>35.24127354040232</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>15.07739599442766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.83264780554905</v>
+        <v>19.57718592169465</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.638225654925741</v>
+        <v>5.718833183441388</v>
       </c>
       <c r="E18">
-        <v>10.60440227180916</v>
+        <v>9.863618131480719</v>
       </c>
       <c r="F18">
-        <v>18.75351001665596</v>
+        <v>20.47508293783197</v>
       </c>
       <c r="G18">
-        <v>26.30172297939853</v>
+        <v>28.11209256125952</v>
       </c>
       <c r="H18">
-        <v>5.264571059253959</v>
+        <v>5.130733510100233</v>
       </c>
       <c r="I18">
-        <v>3.413377829719567</v>
+        <v>3.227333761551458</v>
       </c>
       <c r="J18">
-        <v>8.199674137364459</v>
+        <v>9.264282429046919</v>
       </c>
       <c r="K18">
-        <v>41.58588680105476</v>
+        <v>29.1728056842519</v>
       </c>
       <c r="L18">
-        <v>7.598274350580099</v>
+        <v>22.36891918140772</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>21.32368752358384</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.168477136337061</v>
       </c>
       <c r="O18">
-        <v>42.48914004105517</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14.58404766335497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>35.47840054445116</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>15.53955934394506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.56709846672287</v>
+        <v>19.27258904154968</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.65758977892011</v>
+        <v>5.824293362967977</v>
       </c>
       <c r="E19">
-        <v>9.7300369381243</v>
+        <v>9.320069929859148</v>
       </c>
       <c r="F19">
-        <v>20.01514495032939</v>
+        <v>21.70558573213038</v>
       </c>
       <c r="G19">
-        <v>27.69322330204742</v>
+        <v>29.41799205870636</v>
       </c>
       <c r="H19">
-        <v>4.190951985712331</v>
+        <v>4.022649453050113</v>
       </c>
       <c r="I19">
-        <v>3.428896951377281</v>
+        <v>3.239852203956201</v>
       </c>
       <c r="J19">
-        <v>8.491352062714849</v>
+        <v>9.559955088111181</v>
       </c>
       <c r="K19">
-        <v>40.76413616337115</v>
+        <v>28.64483749546108</v>
       </c>
       <c r="L19">
-        <v>7.066311857461654</v>
+        <v>21.9508077760501</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>20.94292665090176</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.796076472598696</v>
       </c>
       <c r="O19">
-        <v>43.09502181925508</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.25915621051175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>36.23428534750127</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>16.19940843304318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.62557884827279</v>
+        <v>19.30612771020456</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.793168187487777</v>
+        <v>6.085274575839232</v>
       </c>
       <c r="E20">
-        <v>8.889491984219539</v>
+        <v>9.014081198024408</v>
       </c>
       <c r="F20">
-        <v>22.21089977512157</v>
+        <v>23.82330810475078</v>
       </c>
       <c r="G20">
-        <v>30.41874090947852</v>
+        <v>32.38994857259433</v>
       </c>
       <c r="H20">
-        <v>3.676259666445225</v>
+        <v>3.460696462063933</v>
       </c>
       <c r="I20">
-        <v>3.388229886134826</v>
+        <v>3.208187872169605</v>
       </c>
       <c r="J20">
-        <v>9.006578761908921</v>
+        <v>9.887684106852209</v>
       </c>
       <c r="K20">
-        <v>40.42304002512318</v>
+        <v>28.46183468066334</v>
       </c>
       <c r="L20">
-        <v>6.502614157423425</v>
+        <v>21.93734182872866</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>20.6940540601882</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.483763267206721</v>
       </c>
       <c r="O20">
-        <v>45.00543093354177</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.51548419043595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>38.21011858866378</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>17.39184053338934</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.66374771909818</v>
+        <v>20.43879210771244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.760948459241757</v>
+        <v>6.133557089440041</v>
       </c>
       <c r="E21">
-        <v>8.784450346218993</v>
+        <v>8.964823587561847</v>
       </c>
       <c r="F21">
-        <v>23.31243639384988</v>
+        <v>24.62985160617605</v>
       </c>
       <c r="G21">
-        <v>32.38149604730387</v>
+        <v>36.29280175323866</v>
       </c>
       <c r="H21">
-        <v>4.031306717661589</v>
+        <v>3.775260588832408</v>
       </c>
       <c r="I21">
-        <v>3.242398445942884</v>
+        <v>3.098085525096984</v>
       </c>
       <c r="J21">
-        <v>9.287188609446128</v>
+        <v>9.006141764624742</v>
       </c>
       <c r="K21">
-        <v>42.52122087380024</v>
+        <v>29.94641178228177</v>
       </c>
       <c r="L21">
-        <v>6.463552623036072</v>
+        <v>23.43324686897609</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>21.48099025449132</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.457577628798424</v>
       </c>
       <c r="O21">
-        <v>47.70121083399622</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.31989078410478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>40.4665074843929</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>17.90136983807885</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.34106370533549</v>
+        <v>21.18099301528634</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.734705454549929</v>
+        <v>6.159818404808584</v>
       </c>
       <c r="E22">
-        <v>8.740959787311398</v>
+        <v>8.936896010089255</v>
       </c>
       <c r="F22">
-        <v>23.95648085094095</v>
+        <v>25.05917943682275</v>
       </c>
       <c r="G22">
-        <v>33.55122814167637</v>
+        <v>38.7974707405258</v>
       </c>
       <c r="H22">
-        <v>4.249917884071485</v>
+        <v>3.96806167085557</v>
       </c>
       <c r="I22">
-        <v>3.138794379332797</v>
+        <v>3.015005977859496</v>
       </c>
       <c r="J22">
-        <v>9.456525792199464</v>
+        <v>8.378526942124537</v>
       </c>
       <c r="K22">
-        <v>43.77412721573568</v>
+        <v>30.83821587466214</v>
       </c>
       <c r="L22">
-        <v>6.457186738818329</v>
+        <v>24.34356315037918</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>21.94385216805155</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.449142955798715</v>
       </c>
       <c r="O22">
-        <v>49.26950936642123</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.80249596063787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>41.7612742698686</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>18.17423777032722</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.99945186157314</v>
+        <v>20.79716274346016</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.752793622084791</v>
+        <v>6.144499435290196</v>
       </c>
       <c r="E23">
-        <v>8.765787227408651</v>
+        <v>8.956242775475731</v>
       </c>
       <c r="F23">
-        <v>23.62938852530053</v>
+        <v>24.88231726731117</v>
       </c>
       <c r="G23">
-        <v>32.94628597730438</v>
+        <v>37.27701205147739</v>
       </c>
       <c r="H23">
-        <v>4.131619747498149</v>
+        <v>3.865821659627752</v>
       </c>
       <c r="I23">
-        <v>3.185094436356227</v>
+        <v>3.047387047806314</v>
       </c>
       <c r="J23">
-        <v>9.370060101841025</v>
+        <v>8.837766564026143</v>
       </c>
       <c r="K23">
-        <v>42.98411546080372</v>
+        <v>30.26955427468581</v>
       </c>
       <c r="L23">
-        <v>6.460410942325347</v>
+        <v>23.78980461815505</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>21.62508477278498</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.455461475305133</v>
       </c>
       <c r="O23">
-        <v>48.36943500883029</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.55404417396564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>41.03792570106755</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>18.07119250401738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.61674112413442</v>
+        <v>19.28477244814576</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.81758767699603</v>
+        <v>6.115187762649757</v>
       </c>
       <c r="E24">
-        <v>8.856758580696814</v>
+        <v>9.025055949268879</v>
       </c>
       <c r="F24">
-        <v>22.3616874802674</v>
+        <v>23.96509373236954</v>
       </c>
       <c r="G24">
-        <v>30.57487781053108</v>
+        <v>32.51735106333056</v>
       </c>
       <c r="H24">
-        <v>3.680480591790979</v>
+        <v>3.466826373548288</v>
       </c>
       <c r="I24">
-        <v>3.376684919244803</v>
+        <v>3.191274901286547</v>
       </c>
       <c r="J24">
-        <v>9.041833333460556</v>
+        <v>9.928553842184701</v>
       </c>
       <c r="K24">
-        <v>40.11055674204341</v>
+        <v>28.24843147099988</v>
       </c>
       <c r="L24">
-        <v>6.471882432550722</v>
+        <v>21.77284226693035</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>20.53612054439439</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.474594622106203</v>
       </c>
       <c r="O24">
-        <v>44.92637066677019</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.5937848503437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>38.18106300983921</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>17.46640126778491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.99146321300518</v>
+        <v>17.55031268227364</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>5.893744128144167</v>
+        <v>6.137287090018142</v>
       </c>
       <c r="E25">
-        <v>8.95416730087892</v>
+        <v>9.093891366621852</v>
       </c>
       <c r="F25">
-        <v>20.99288504653554</v>
+        <v>22.51436517127877</v>
       </c>
       <c r="G25">
-        <v>27.90553370409325</v>
+        <v>29.46805372026036</v>
       </c>
       <c r="H25">
-        <v>3.179144511098886</v>
+        <v>3.003603092951234</v>
       </c>
       <c r="I25">
-        <v>3.58792138538222</v>
+        <v>3.35182148757418</v>
       </c>
       <c r="J25">
-        <v>8.701069747142409</v>
+        <v>9.682326857267807</v>
       </c>
       <c r="K25">
-        <v>36.84074770511374</v>
+        <v>26.0556066590626</v>
       </c>
       <c r="L25">
-        <v>6.482080150447945</v>
+        <v>19.55538231860298</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>19.38377178683808</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.486350864882259</v>
       </c>
       <c r="O25">
-        <v>40.90023059536723</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.55014044534022</v>
+        <v>34.67405217455368</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.40006253076135</v>
       </c>
     </row>
   </sheetData>
